--- a/recipeData/Recipes.xlsx
+++ b/recipeData/Recipes.xlsx
@@ -179,9 +179,6 @@
     <t>boiling/double boiling</t>
   </si>
   <si>
-    <t>Clams in Chinese rice wine, ginger and chili</t>
-  </si>
-  <si>
     <t>frying/deep frying</t>
   </si>
   <si>
@@ -2076,6 +2073,9 @@
   </si>
   <si>
     <t>Turmeric rice dumplings with dried shrimp sambal</t>
+  </si>
+  <si>
+    <t>Clams in Chinese rice wine ginger and chili</t>
   </si>
 </sst>
 </file>
@@ -2491,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" s="6">
         <v>6</v>
@@ -2526,34 +2526,34 @@
         <v>15</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="6">
         <v>18</v>
@@ -2573,34 +2573,34 @@
         <v>135</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="6">
         <v>4</v>
@@ -2620,34 +2620,34 @@
         <v>25</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="6">
         <v>6</v>
@@ -2667,7 +2667,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
@@ -2676,25 +2676,25 @@
         <v>42</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -2714,7 +2714,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>5</v>
@@ -2723,25 +2723,25 @@
         <v>42</v>
       </c>
       <c r="I5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
@@ -2770,25 +2770,25 @@
         <v>49</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
@@ -2823,19 +2823,19 @@
         <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2843,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="6">
         <v>6</v>
@@ -2864,25 +2864,25 @@
         <v>42</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
@@ -2902,34 +2902,34 @@
         <v>30</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>49</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,7 +2937,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
@@ -2949,34 +2949,34 @@
         <v>20</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -2996,7 +2996,7 @@
         <v>140</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>5</v>
@@ -3005,25 +3005,25 @@
         <v>42</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="6">
         <v>6</v>
@@ -3043,7 +3043,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>5</v>
@@ -3052,25 +3052,25 @@
         <v>42</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="6">
         <v>4</v>
@@ -3090,7 +3090,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>5</v>
@@ -3099,25 +3099,25 @@
         <v>42</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="6">
         <v>6</v>
@@ -3137,7 +3137,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>5</v>
@@ -3146,25 +3146,25 @@
         <v>42</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="6">
         <v>10</v>
@@ -3184,34 +3184,34 @@
         <v>250</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
@@ -3231,7 +3231,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>5</v>
@@ -3240,25 +3240,25 @@
         <v>42</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="6">
         <v>6</v>
@@ -3278,7 +3278,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>5</v>
@@ -3290,22 +3290,22 @@
         <v>14</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="6">
         <v>4</v>
@@ -3325,34 +3325,34 @@
         <v>20</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -3372,34 +3372,34 @@
         <v>120</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="6">
         <v>20</v>
@@ -3419,42 +3419,42 @@
         <v>300</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>232</v>
-      </c>
       <c r="I20" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="6">
         <v>15</v>
@@ -3466,34 +3466,34 @@
         <v>135</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,7 +3501,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -3513,34 +3513,34 @@
         <v>50</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>35</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -3560,34 +3560,34 @@
         <v>30</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="J23" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="K23" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3595,7 +3595,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="6">
         <v>6</v>
@@ -3607,34 +3607,34 @@
         <v>60</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="J24" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3642,7 +3642,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="6">
         <v>4</v>
@@ -3654,7 +3654,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>41</v>
@@ -3669,19 +3669,19 @@
         <v>44</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="6">
         <v>6</v>
@@ -3701,7 +3701,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>41</v>
@@ -3713,22 +3713,22 @@
         <v>46</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="6">
         <v>4</v>
@@ -3760,30 +3760,30 @@
         <v>50</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>683</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" s="6">
         <v>4</v>
@@ -3795,7 +3795,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>37</v>
@@ -3804,33 +3804,33 @@
         <v>49</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M28" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" s="6">
         <v>4</v>
@@ -3842,7 +3842,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>37</v>
@@ -3851,33 +3851,33 @@
         <v>42</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="6">
         <v>4</v>
@@ -3889,7 +3889,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>37</v>
@@ -3898,33 +3898,33 @@
         <v>49</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" s="6">
         <v>4</v>
@@ -3936,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>37</v>
@@ -3945,33 +3945,33 @@
         <v>42</v>
       </c>
       <c r="I31" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>252</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" s="6">
         <v>6</v>
@@ -3983,42 +3983,42 @@
         <v>55</v>
       </c>
       <c r="F32" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
@@ -4030,42 +4030,42 @@
         <v>8</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" s="6">
         <v>10</v>
@@ -4077,42 +4077,42 @@
         <v>250</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
@@ -4124,7 +4124,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>37</v>
@@ -4133,33 +4133,33 @@
         <v>42</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="6">
         <v>3</v>
@@ -4171,7 +4171,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>37</v>
@@ -4183,30 +4183,30 @@
         <v>46</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" s="6">
         <v>4</v>
@@ -4218,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>37</v>
@@ -4230,30 +4230,30 @@
         <v>46</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="6">
         <v>6</v>
@@ -4265,40 +4265,40 @@
         <v>25</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="6">
         <v>4</v>
@@ -4310,7 +4310,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>37</v>
@@ -4325,27 +4325,27 @@
         <v>44</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>48</v>
@@ -4366,33 +4366,33 @@
         <v>49</v>
       </c>
       <c r="I40" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>261</v>
-      </c>
       <c r="K40" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" s="6">
         <v>4</v>
@@ -4404,7 +4404,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>37</v>
@@ -4413,33 +4413,33 @@
         <v>42</v>
       </c>
       <c r="I41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="K41" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" s="6">
         <v>12</v>
@@ -4451,40 +4451,40 @@
         <v>20</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N42" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" s="6">
         <v>2</v>
@@ -4496,42 +4496,42 @@
         <v>20</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="6">
         <v>6</v>
@@ -4543,42 +4543,42 @@
         <v>30</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" s="6">
         <v>4</v>
@@ -4590,42 +4590,42 @@
         <v>20</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="6">
         <v>8</v>
@@ -4637,42 +4637,42 @@
         <v>15</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="K46" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" s="6">
         <v>3</v>
@@ -4684,42 +4684,42 @@
         <v>40</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="6">
         <v>8</v>
@@ -4731,42 +4731,42 @@
         <v>20</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="J48" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="K48" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C49" s="6">
         <v>15</v>
@@ -4778,42 +4778,42 @@
         <v>20</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="J49" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" s="6">
         <v>6</v>
@@ -4825,42 +4825,42 @@
         <v>10</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="K50" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" s="6">
         <v>4</v>
@@ -4872,42 +4872,42 @@
         <v>10</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C52" s="6">
         <v>2</v>
@@ -4919,42 +4919,42 @@
         <v>30</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" s="6">
         <v>3</v>
@@ -4966,42 +4966,42 @@
         <v>30</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I53" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I53" s="12" t="s">
-        <v>269</v>
-      </c>
       <c r="J53" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C54" s="6">
         <v>3</v>
@@ -5013,42 +5013,42 @@
         <v>20</v>
       </c>
       <c r="F54" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>271</v>
-      </c>
       <c r="K54" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C55" s="6">
         <v>2</v>
@@ -5060,42 +5060,42 @@
         <v>20</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>2</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="6">
         <v>4</v>
@@ -5107,42 +5107,42 @@
         <v>30</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" s="9">
         <v>6</v>
@@ -5154,42 +5154,42 @@
         <v>40</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J57" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="6">
         <v>3</v>
@@ -5201,42 +5201,42 @@
         <v>20</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I58" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J58" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>275</v>
-      </c>
       <c r="K58" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" s="6">
         <v>4</v>
@@ -5248,42 +5248,42 @@
         <v>30</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" s="6">
         <v>20</v>
@@ -5295,42 +5295,42 @@
         <v>10</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C61" s="6">
         <v>5</v>
@@ -5342,42 +5342,42 @@
         <v>45</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G61" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J61" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H61" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="K61" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C62" s="5">
         <v>5</v>
@@ -5389,42 +5389,42 @@
         <v>30</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N62" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C63" s="5">
         <v>12</v>
@@ -5436,42 +5436,42 @@
         <v>30</v>
       </c>
       <c r="F63" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="G63" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" s="16" t="s">
+      <c r="I63" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="J63" s="16" t="s">
         <v>8</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" s="5">
         <v>6</v>
@@ -5486,39 +5486,39 @@
         <v>17</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" s="5">
         <v>4</v>
@@ -5530,42 +5530,42 @@
         <v>30</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66" s="5">
         <v>4</v>
@@ -5577,13 +5577,13 @@
         <v>25</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>21</v>
@@ -5592,27 +5592,27 @@
         <v>8</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N66" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="5">
         <v>4</v>
@@ -5624,42 +5624,42 @@
         <v>10</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="5">
         <v>4</v>
@@ -5671,10 +5671,10 @@
         <v>15</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H68" s="16" t="s">
         <v>42</v>
@@ -5686,27 +5686,27 @@
         <v>2</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="5">
         <v>12</v>
@@ -5718,42 +5718,42 @@
         <v>60</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="I69" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>287</v>
-      </c>
       <c r="K69" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C70" s="5">
         <v>10</v>
@@ -5765,42 +5765,42 @@
         <v>60</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C71" s="5">
         <v>10</v>
@@ -5812,42 +5812,42 @@
         <v>90</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
@@ -5859,13 +5859,13 @@
         <v>30</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>21</v>
@@ -5874,27 +5874,27 @@
         <v>8</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N72" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C73" s="3">
         <v>10</v>
@@ -5906,42 +5906,42 @@
         <v>120</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M73" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" s="3">
         <v>6</v>
@@ -5953,42 +5953,42 @@
         <v>60</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M74" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N74" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" s="3">
         <v>8</v>
@@ -6000,42 +6000,42 @@
         <v>30</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I75" s="18" t="s">
         <v>21</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N75" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" s="3">
         <v>4</v>
@@ -6047,42 +6047,42 @@
         <v>15</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>21</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M76" s="24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N76" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="3">
         <v>6</v>
@@ -6094,42 +6094,42 @@
         <v>15</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>21</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M77" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N77" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="3">
         <v>8</v>
@@ -6141,42 +6141,42 @@
         <v>180</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M78" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" s="3">
         <v>6</v>
@@ -6188,42 +6188,42 @@
         <v>90</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M79" s="24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N79" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C80" s="3">
         <v>4</v>
@@ -6235,42 +6235,42 @@
         <v>20</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N80" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" s="6">
         <v>4</v>
@@ -6282,42 +6282,42 @@
         <v>30</v>
       </c>
       <c r="F81" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G81" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G81" s="12" t="s">
+      <c r="H81" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="I81" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="J81" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I81" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="K81" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L81" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" s="6">
         <v>2</v>
@@ -6329,42 +6329,42 @@
         <v>20</v>
       </c>
       <c r="F82" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G82" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G82" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="H82" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I82" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="I82" s="12" t="s">
+      <c r="J82" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>299</v>
-      </c>
       <c r="K82" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="6">
         <v>2</v>
@@ -6376,42 +6376,42 @@
         <v>10</v>
       </c>
       <c r="F83" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G83" s="12" t="s">
+      <c r="H83" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H83" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="I83" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J83" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J83" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="K83" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L83" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N83" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" s="6">
         <v>2</v>
@@ -6423,42 +6423,42 @@
         <v>25</v>
       </c>
       <c r="F84" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G84" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="H84" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H84" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="I84" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J84" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="K84" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" s="6">
         <v>1</v>
@@ -6470,42 +6470,42 @@
         <v>10</v>
       </c>
       <c r="F85" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G85" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="H85" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H85" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="I85" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C86" s="6">
         <v>2</v>
@@ -6517,42 +6517,42 @@
         <v>30</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C87" s="6">
         <v>8</v>
@@ -6564,42 +6564,42 @@
         <v>90</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H87" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I87" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="I87" s="12" t="s">
-        <v>303</v>
-      </c>
       <c r="J87" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" s="6">
         <v>6</v>
@@ -6611,42 +6611,42 @@
         <v>25</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H88" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I88" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="J88" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="K88" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" s="6">
         <v>4</v>
@@ -6658,42 +6658,42 @@
         <v>15</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L89" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N89" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C90" s="6">
         <v>4</v>
@@ -6705,42 +6705,42 @@
         <v>120</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L90" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N90" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" s="6">
         <v>6</v>
@@ -6752,42 +6752,42 @@
         <v>30</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M91" s="25" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C92" s="6">
         <v>4</v>
@@ -6799,42 +6799,42 @@
         <v>20</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L92" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C93" s="6">
         <v>4</v>
@@ -6846,42 +6846,42 @@
         <v>30</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H93" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I93" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="I93" s="12" t="s">
+      <c r="J93" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="K93" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="6">
         <v>4</v>
@@ -6893,42 +6893,42 @@
         <v>20</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C95" s="6">
         <v>4</v>
@@ -6940,42 +6940,42 @@
         <v>15</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H95" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J95" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I95" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="K95" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N95" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96" s="6">
         <v>4</v>
@@ -6987,42 +6987,42 @@
         <v>15</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H96" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I96" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="I96" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="J96" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L96" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" s="6">
         <v>8</v>
@@ -7034,42 +7034,42 @@
         <v>15</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G97" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J97" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H97" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J97" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="K97" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L97" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="6">
         <v>4</v>
@@ -7081,42 +7081,42 @@
         <v>15</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H98" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I98" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="I98" s="12" t="s">
+      <c r="J98" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>314</v>
-      </c>
       <c r="K98" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C99" s="6">
         <v>8</v>
@@ -7128,42 +7128,42 @@
         <v>10</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H99" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I99" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="I99" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="J99" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C100" s="6">
         <v>8</v>
@@ -7175,34 +7175,34 @@
         <v>60</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H100" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I100" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="I100" s="12" t="s">
+      <c r="J100" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="K100" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L100" s="25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N100" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -7360,18 +7360,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7393,14 +7393,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -7414,4 +7406,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/recipeData/Recipes.xlsx
+++ b/recipeData/Recipes.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Nonya and Vege" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="657">
   <si>
     <t>sambal dried shrimp</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Capsicum stuffed with rice salad recipe</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
     <t>Baking</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Chinese Pepper Steak</t>
   </si>
   <si>
-    <t>chinese</t>
-  </si>
-  <si>
     <t>stir frying</t>
   </si>
   <si>
@@ -413,9 +407,6 @@
     <t>Caramel apple upside down cake recipe</t>
   </si>
   <si>
-    <t>Desserts</t>
-  </si>
-  <si>
     <t>Boiling / Double Boiling</t>
   </si>
   <si>
@@ -503,9 +494,6 @@
     <t>beef steak and chips</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>beef wellington</t>
   </si>
   <si>
@@ -626,12 +614,6 @@
     <t>hard</t>
   </si>
   <si>
-    <t>Nyonya; Asian; Singapore; Malaysia</t>
-  </si>
-  <si>
-    <t>Asian; Indonesian; Nonya; Vegetarian</t>
-  </si>
-  <si>
     <t>Appetizer; Snack</t>
   </si>
   <si>
@@ -641,15 +623,6 @@
     <t>Rice; Vegetable</t>
   </si>
   <si>
-    <t>Asian; Vegetarian</t>
-  </si>
-  <si>
-    <t>Chinese; Asian; Nyonya; Peranakan</t>
-  </si>
-  <si>
-    <t>Asian; Nyonya; Peranakan; Seafood</t>
-  </si>
-  <si>
     <t>boiling; frying</t>
   </si>
   <si>
@@ -662,57 +635,30 @@
     <t>Fish; Fruit; Seafood; Vegetable</t>
   </si>
   <si>
-    <t>Asian; Indonesian; Nyonya; Peranakan</t>
-  </si>
-  <si>
-    <t>Main; Soup</t>
-  </si>
-  <si>
     <t>Fish; Seafood</t>
   </si>
   <si>
-    <t>Asian; Indian; Snacks; Vegetarian</t>
-  </si>
-  <si>
     <t>Main; Snack</t>
   </si>
   <si>
-    <t>Asian; Nyonya; Peranakan; Vegetarian</t>
-  </si>
-  <si>
     <t>Vegetable; Fruit</t>
   </si>
   <si>
-    <t>Asian; Chinese; Nyonya</t>
-  </si>
-  <si>
     <t>Chicken; Pork</t>
   </si>
   <si>
     <t>Noodle; Seafood</t>
   </si>
   <si>
-    <t>Asian; Malaysia; Nyonya</t>
-  </si>
-  <si>
     <t>Rice; Pork</t>
   </si>
   <si>
-    <t>Asian; Chinese; Vegetarian</t>
-  </si>
-  <si>
-    <t>Asian; Indonesian; Nonya; Peranakan</t>
-  </si>
-  <si>
     <t>Noodle; Pork; Vegetable</t>
   </si>
   <si>
     <t>Baking; Grill</t>
   </si>
   <si>
-    <t>Asian; Peranakan; Nyonya</t>
-  </si>
-  <si>
     <t>Vegetable; Turkey</t>
   </si>
   <si>
@@ -722,21 +668,12 @@
     <t>steamer;rectangle cake pan</t>
   </si>
   <si>
-    <t>Nyonya; Asian; Peranakan; Malaysia</t>
-  </si>
-  <si>
     <t>stir frying; Boiling</t>
   </si>
   <si>
-    <t>Asian; Nyonya; Peranakan</t>
-  </si>
-  <si>
     <t>Grill; Boiling</t>
   </si>
   <si>
-    <t>Asian; Chinese</t>
-  </si>
-  <si>
     <t>Wok; claypot</t>
   </si>
   <si>
@@ -746,72 +683,39 @@
     <t>Chicken; Rice</t>
   </si>
   <si>
-    <t>Asian; Malay/Indonesian</t>
-  </si>
-  <si>
     <t>noodle; seafood;pork</t>
   </si>
   <si>
-    <t>Asian; Seafood;Singaporean</t>
-  </si>
-  <si>
-    <t>Asian; Singaporean</t>
-  </si>
-  <si>
     <t>pork; vegetable</t>
   </si>
   <si>
     <t>chicken; pork</t>
   </si>
   <si>
-    <t>Chinese; Asian</t>
-  </si>
-  <si>
-    <t>Asian; chinese</t>
-  </si>
-  <si>
     <t>fish;rice</t>
   </si>
   <si>
-    <t>chinese;Asian;Seafood</t>
-  </si>
-  <si>
     <t>steamed dishes;stir frying/wok</t>
   </si>
   <si>
     <t>fish;seafood</t>
   </si>
   <si>
-    <t>asian;chinese;hokkien</t>
-  </si>
-  <si>
     <t>breakfast;brunch;easy</t>
   </si>
   <si>
     <t>frying/deep frying; steamed dishes</t>
   </si>
   <si>
-    <t>chinese;asian</t>
-  </si>
-  <si>
     <t>rice;pork</t>
   </si>
   <si>
-    <t>asian;chinese</t>
-  </si>
-  <si>
-    <t>asian;singaporean</t>
-  </si>
-  <si>
     <t>stir frying/wok;boiling/double boiling</t>
   </si>
   <si>
     <t>noodle;chicken;seafood</t>
   </si>
   <si>
-    <t>Indian; Asian</t>
-  </si>
-  <si>
     <t>Boiling; low heat and simmer</t>
   </si>
   <si>
@@ -833,63 +737,39 @@
     <t>Oven bake; stir fry</t>
   </si>
   <si>
-    <t>Indian; Asian; Vegetarian</t>
-  </si>
-  <si>
     <t>Cauliflower; Potatoes</t>
   </si>
   <si>
     <t>Blender; Pot</t>
   </si>
   <si>
-    <t>Indian; Asian; Italian</t>
-  </si>
-  <si>
     <t>Stir Fry; Oven bake</t>
   </si>
   <si>
     <t>Pizza; Chicken</t>
   </si>
   <si>
-    <t>Main; Breakfast; Sides</t>
-  </si>
-  <si>
     <t>Breakfast; Sides; Sauce</t>
   </si>
   <si>
     <t>Jam; Sauce</t>
   </si>
   <si>
-    <t>Western; European; French</t>
-  </si>
-  <si>
     <t>Oven;Piping bag;Plain nozzle</t>
   </si>
   <si>
-    <t>Asian; Malaysia; Nonya/Peranakan</t>
-  </si>
-  <si>
     <t>food processor;frying pan</t>
   </si>
   <si>
     <t>Stir Frying / Wok; Boiling / Double Boiling</t>
   </si>
   <si>
-    <t>Oven; ;Brass moulds</t>
-  </si>
-  <si>
-    <t>Western; American</t>
-  </si>
-  <si>
     <t>Piping bag; Plain nozzle; round bundt pan</t>
   </si>
   <si>
     <t>Fruit; Flour</t>
   </si>
   <si>
-    <t>Desserts; Snacks</t>
-  </si>
-  <si>
     <t>Asian; Indonesian</t>
   </si>
   <si>
@@ -968,6 +848,855 @@
     <t>pasta; sausage</t>
   </si>
   <si>
+    <t>Turmeric rice dumplings with dried shrimp sambal</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>main course; Breakfast; Sides</t>
+  </si>
+  <si>
+    <t>main course; Snack</t>
+  </si>
+  <si>
+    <t>main course; Soup</t>
+  </si>
+  <si>
+    <t>Clams in Chinese rice wine ginger and chili</t>
+  </si>
+  <si>
+    <t>Oven;Brass moulds</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Peranakan</t>
+  </si>
+  <si>
+    <t>Singaporean</t>
+  </si>
+  <si>
+    <t>Hokkien</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>'dried shrimps;Nyonya Sambal chilly;fine sugar;lime leaves'</t>
+  </si>
+  <si>
+    <t>'vegetarian chicken;cooking oil;glutinous rice;blue pea flower;hemp string;pandan leaves;salt;dried bamboo leaves;biryani powder;water;mushroom stock;brown sugar;winter melon;dried chilly;lemongrass;blue ginger;turmeric'</t>
+  </si>
+  <si>
+    <t>'yellow capsicums;cooked rice;French beans;canned corn kernels;tomato;extra virgin olive oil; Salt;pepper;coriander;shredded cheese'</t>
+  </si>
+  <si>
+    <t>'chicken;meat curry powder;chilly powder;cooking oil;potato;water;curry leaf;coconut milk;tamarind peel;salt2 stalks lemon grass;cinnamon stick;anise;cardamon;shallots;garlic;ginger'</t>
+  </si>
+  <si>
+    <t>'small prawn;garlic;White cabbage;green bean;leeks;carrot;Chinese mushrooms;light soy sauce;salt;Pepper;sugar;Popiah skin;Chinese lettuce;Chinese sausages;egg;cucumber;bean sprout;coriander;Fried garlic;roasted peanuts;Sweet black soy sauce;garlic paste;red chilly'</t>
+  </si>
+  <si>
+    <t>'Cooking Oil;water;tamarind pulp;Mackerel;Kaffir Lime Leaves;Sugar;Salt;Lady Finger;dried chillye;shallot;garlic;candlenut;turmeric;galangal;lemongrass;belachan'</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>'Sago Pearl;Gula Melaka;Coconut Milk;Pandan Leaf;Water;Salt'</t>
+  </si>
+  <si>
+    <t>'yam bean;guava;cucumber;carrot;green papaya;pomelo sac;rice flour;tapioca flour;egg;water;salt;sugar;small prawn;galangal;bird’s eye chilly;fresh red chilly;plum sauce;salt;cooking oil;crushed fried peanuts;toasted sesame seeds'</t>
+  </si>
+  <si>
+    <t>'horse mackerel;tamarind paste;dried shrimp paste;lemongrass;chilly;onion;lime leave;salt;sugar;line'</t>
+  </si>
+  <si>
+    <t>'spring roll wrappers;flour;cooking oil;curry Leaves;mustard seed;cumin; garlic;onion; fish curry powder; pumpkin; water; green peas; coconut milk; sugar; salt'</t>
+  </si>
+  <si>
+    <t>'cooking oil;cinnamon stick;star anise;clove;shallot;garlic;fish curry powder;water;tamarind paste;palm sugar;pineapple;coconut milk;salt'</t>
+  </si>
+  <si>
+    <t>'chicken;belly pork;cooking oil;bean paste;palm sugar;shitake mushroom;water;potato;dark soya sauce;salt;shallot;garlic'</t>
+  </si>
+  <si>
+    <t>'cooking oil;shallots;garlic;shallot;soya bean paste;prawn;chicken;yellow egg noodles;mustard green;bean sprout;water;dark soya sauce;light soya sauce;sugar;white pepper;Salt;fresh red chilly;red chilly padi;belachan;shallot crisp'</t>
+  </si>
+  <si>
+    <t>'cooking oil;onion;chicken;brown sugar;kaffir lime leave;water;coconut milk;lime juice;Salt;shallot;garlic;ginger;galangal;turmeric;candle nut;lemon grass;dried chilly;bird’s eye chilly;belachan'</t>
+  </si>
+  <si>
+    <t>'glutinous rice;dried prawns;lean pork;candied winter melon;lemon grass;knob galangal;dried chilly;garlic;shallot;coriander seed;sugar;Blue pea flowers;pandan leave'</t>
+  </si>
+  <si>
+    <t>'hard tofu;sweet corn kernel;red bell pepper;snow pea pod;chilly paste;shallot;garlic;honey;salt'</t>
+  </si>
+  <si>
+    <t>'round cabbage;pork belly;dried black fungus;dried lily buds;sweet dried bean curd;dried tang hoon;dried mushrooms;dried prawn;fresh garlic;tau cheoh paste;dark soya sauce;cooking oil;chicken seasoning powder'</t>
+  </si>
+  <si>
+    <t>'chicken drummets;ginger juice; corn flour;chilly flakes;oyster sauce; chicken stock granules; dark soya sauce;lime leaves;honey;salt'</t>
+  </si>
+  <si>
+    <t>'turkey;onion;carrot; celery;Thai sweet basil;kaffir lime leave;laksa leaves;salt;dried shrimp paste;vegetable or olive oil;Pepper;kaffir lime leaves;corn flour;white wine'</t>
+  </si>
+  <si>
+    <t>'sweet potato flesh;coarse sugar;water;tapioca flour;thick coconut milk;salt;coconut flesh'</t>
+  </si>
+  <si>
+    <t>'glutinous rice;freshly ground turmeric;tamarind peel;pepper corn;salt;dried bamboo leave;hemp string;cooking oil;dried chilly;shallot;sugar;salt;dried prawn'</t>
+  </si>
+  <si>
+    <t>'pork belly;tamarind paste;water;salt;sugar'</t>
+  </si>
+  <si>
+    <t>'skinless chicken breast;chicken drumsticks;rice;corn oil;ginger;scallion;mushroom;oyster sauce;soy sauce;corn starch;sesame oil;white pepper;sugar;shaoxing wine;dark soy sauce;salt'</t>
+  </si>
+  <si>
+    <t>'corn cooking oil;water;pork ribs;salt;yellow noodle;dried vermicelli;dried chiilies;shallot;garlic;prawn heads and shells;rock sugar;salt;sugar;eggs kang kong;bean sprout;shallot crips'</t>
+  </si>
+  <si>
+    <t>'black pepper;melted unsalted butter;garlic;onion;crab;oyster sauce;sugar;water;salt'</t>
+  </si>
+  <si>
+    <t>'pork mince;onion;patato;frozen peas;dark soya sauce;salt;stick of cinnamon;clovea;pepper;vegetable oil'</t>
+  </si>
+  <si>
+    <t>'water;chicken meat or spare ribs;dried squid;chicken stock granules;date;pepper;carrot;lotus root;salt'</t>
+  </si>
+  <si>
+    <t>'claim; onion;garlic;vegetable oil;chinese rice wine;ginger;chilies;sasame oil;spring onion;light soya sauce'</t>
+  </si>
+  <si>
+    <t>'prawn;butter;salt;pepper'</t>
+  </si>
+  <si>
+    <t>'fish fillet;fish bones;ginger;tianjin preserved vegetable;dried seaweed;light soya sauce;sesame oil;rice wine;pepper;hua tiao wine;water;spring onion;coriander;cooked rice'</t>
+  </si>
+  <si>
+    <t>'cod fillet;salt;white pepper;tomato;sour plum;silken tofu;ginger;cooking oil;garlic;pork;preserved mustard;water;soy sauce;shaoxing wine;sugar;onion;coriander'</t>
+  </si>
+  <si>
+    <t>'glutinous rice;chinese dried mushroom;chinese sausage;dried prawn;shallot;peanut;salt;light and dark soya sauce;spring onion'</t>
+  </si>
+  <si>
+    <t>'prawn;garlic;wolfberry;chinese rice wine;sugar;chicken bouillon;salt;water'</t>
+  </si>
+  <si>
+    <t>'glutinous rice;pork hock with skin;lean pork;dried shiitake mushroom;chinese chestnut;garlic;soy sauce;five-spice powder;salt;pepper;salted egg yolk;bamboo leave'</t>
+  </si>
+  <si>
+    <t>'golden snapper fish;cooking oil;shallot;garlic;tamarind pulp;chili padi;sugar;salt'</t>
+  </si>
+  <si>
+    <t>'snapper;salted vegetable;plum;corn flour;tomato;red chili;coriander;sesame oil'</t>
+  </si>
+  <si>
+    <t>'dried egg noodle;egg;dried shrimp;shiitake mushroom;sugar;soy sauce;oyster sauce;onion;coriander;water;salt;pepper;cooking oil'</t>
+  </si>
+  <si>
+    <t>'egg;water;fresh milk;chicken stock granule;ground pepper;century egg;salted egg yolk;crabstick;spring onion;sesame oil;salt;garlic crips cooking oil'</t>
+  </si>
+  <si>
+    <t>'butter;cooking oil;shallot;eye chilies;bird eye chilies;curry leave;salted egg yolk;evaporated milk;water;prawn;sugar;salt'</t>
+  </si>
+  <si>
+    <t>'garlic;ginger;onion;pork belly;prawn;clam;cabbage;celery;carrot;chinese chive;chinese mushroom;wheat flour noodle;chicken stock;hua tiao wine;salt;chicken powder;oyster sauce;sugar;peanut;seaweed;onion;pepper powder'</t>
+  </si>
+  <si>
+    <t>'beef top sirlion steak;soy sauce;sugar;corn starch;ginger;vegetable oil;onion;green bell pepper;tomato'</t>
+  </si>
+  <si>
+    <t>'confectioner sugar;flour;egg;butter;dash vanilla;sugar;water;evaporated milk'</t>
+  </si>
+  <si>
+    <t>'chicken; potatoes; oil; chicken curry powder; onions; lemon grass; water; coconut milk; evaporated milk; salt; sugar; curry leaves; garlic; shallot; lemon grass'</t>
+  </si>
+  <si>
+    <t>'chicken whole legs; potatoes; Cooking oil; water; coconut milk; tomatoes; salt; sugar; cinnamon stick; cloves; cardamons; bay leaf; big onion; green chillies; young ginger;  green chillies; shallots; garlic; cashew nuts; coriander seeds; fennel; cumin; turmeric powder;  peppercorns; coriander leaves; shallot crisps'</t>
+  </si>
+  <si>
+    <t>'basmati rice; cardamom; cloves; cinnamon stick; saffron strands; water; salt; boneless chicken leg; Indian yoghurt;  smoked paprika; grated ginger; cracked black pepper; turmeric powder; cumin powder; sea salt'</t>
+  </si>
+  <si>
+    <t>'sugar; warm water; active dry yeast; all-purpose flour; plain yogurt; oil; salted butter'</t>
+  </si>
+  <si>
+    <t>'chicken legs; Oil; lime; Greek yogurt; minced ginger; minced garlic; Garam Masala; cayenne pepper; lime juice; oil; salt; turmeric powder; Red coloring '</t>
+  </si>
+  <si>
+    <t>'All purpose flour; Kosher salt; Granulated sugar; Ghee; Egg; milk; water'</t>
+  </si>
+  <si>
+    <t>'all-purpose flour; semolina (cream of wheat); oil; salt; ajwain seeds (optional); water; medium sized potatoes; sweet green peas; thinly sliced onions; cumin seeds; minced green chili; coriander powder'</t>
+  </si>
+  <si>
+    <t>'ripe mangoes; honey; ice; plain yogurt'</t>
+  </si>
+  <si>
+    <t>'shrimp (tiger prawn); Bamboo skewers; water; Oil; chopped cilantro; 1 lime;  Greek yogurt; finely minced garlic; Garam Masala; chili powder; lime juice; oil; salt; turmeric powder; Red coloring'</t>
+  </si>
+  <si>
+    <t>'Tandoori Chicken; butter; finely minced ginger; finely minced garlic; canned tomato paste; chili powder; Garam Masala; ketchup; teaspoon sugar; Salt; water; heavy whipped cream; cilantro leaves'</t>
+  </si>
+  <si>
+    <t>'vegetable oil; cumin seeds; large onion; ginger-garlic paste; medium sized ripe tomatoes; coriander powder; cumin powder; turmeric powder; chili powder; dry kasoori methi; heavy cream; Salt; white button mushrooms;  large green or red bell pepper; turmeric; chili powderreek yogurt or strained yogurt'</t>
+  </si>
+  <si>
+    <t>'1 tablespoon oil'</t>
+  </si>
+  <si>
+    <t>'medium cauliflower; russet potatoes; canola oil; black mustard seeds; cumin seeds; coriander seeds; onion; Jalapeno or hot green pepper; tomato; garlic; fresh ginger;  chili powder;  turmeric powder; salt; water'</t>
+  </si>
+  <si>
+    <t>'seafood curry paste; large prawns; squids; scallops; seabass fillet; 1 tomato; coconut milk; tamarind pulp; shallots; water; oil; Salt; curry leaves'</t>
+  </si>
+  <si>
+    <t>'chicken(thigh meat); ginger paste; garlic paste; red chili powder; ground black pepper; Salt; Oil; lime or lemon juice; food color (deep orange); large tomatoes; garlic paste; ginger paste; jalapeno; cinnamon; bay leaf; cloves; green cardamom; whole black pepper; ketchup; sugar; red chili powder; dried fenugreek leaves; Salt;'</t>
+  </si>
+  <si>
+    <t>' oil'</t>
+  </si>
+  <si>
+    <t>'2 tablespoon butter'</t>
+  </si>
+  <si>
+    <t>'Water (1/2 cup + about 1/2 cup)'</t>
+  </si>
+  <si>
+    <t>'1 whole chicken; cut up into 8 pieces and skin removed onion; chopped'</t>
+  </si>
+  <si>
+    <t>'tomato paste; Salt; pepper; oil; white vinegar; red Chilly peppers; cloves; garlic; fresh ginger; paprika powder; cinnamon; cumin; dry mustard; sugar'</t>
+  </si>
+  <si>
+    <t>'skinless and boneless chicken breast; butter; garlic; jalapeno; Salt; pizza crust; Olive oil; onion; mozzarella cheese; coriander leaves or cilantro; cumin; cayenne pepper; garam masala; fresh ginger; salt; black pepper; lemon juice; plain yogurt; cinnamon; tomato sauce; plain yogurt; cumin; '</t>
+  </si>
+  <si>
+    <t>'paprika; garam masala; '</t>
+  </si>
+  <si>
+    <t>'boneless skinless chicken breast; vegetable oil; minced garlic; fresh ginger; onion; cumin seeds; green cardamom; ripe tomato; turmeric; red pepper (cayenne); salt; black pepper'</t>
+  </si>
+  <si>
+    <t>'wheat flour (or stone ground drum-wheat also known as “Atta”); water; salt'</t>
+  </si>
+  <si>
+    <t>'rie firm green mango; cinnamon; cloves; cumin seeds; coriander seeds; cardamom; ginger; dry red chilly; garlic; demerara suga; vinegar; water; salt'</t>
+  </si>
+  <si>
+    <t>'almonds; icing sugar; aged egg whites; caster sugar; pink food colouring powder; rose essence                                                                                                                                            '</t>
+  </si>
+  <si>
+    <t>'large onions; turmeric root; slices of lengkwas (galangal) root; stalks lemongrass; red chillies; candlenuts; tablespoon  belacan (shrimp paste); teaspoon  chopped garlic; chicken; coconut milk; water; teaspoons  salt; White pepper; sugar'</t>
+  </si>
+  <si>
+    <t>'vegetable oil; onions; screw pine leaves (daun pandan); 1 kg lean beef; coconut cream (santan pekat); water; tamarind pulp; desiccated coconut (kerisik); sugar; Salt'</t>
+  </si>
+  <si>
+    <t>'ghee; plain flour'</t>
+  </si>
+  <si>
+    <t>'Oil ; chicken; garlic powder; salt;ground turmeric ; ground nutmeg; butter'</t>
+  </si>
+  <si>
+    <t>'red onions; red bell pepper; large red chilli; honey red tomatoes; bulb garlic; stick cinnamon; fish sauce; sugar; oil'</t>
+  </si>
+  <si>
+    <t>'beancurd; chunky peanut butter; Hoisin sauce; water; vegetable oil; Salt; pepper; crabmeat; lime; cucumber; carrot'</t>
+  </si>
+  <si>
+    <t>'royal gala apples; sugar; butter; margarine; salt; castor sugar; vanilla extract; plain flour; baking powder; ground almonds; ground cinnamon; Grade A eggs; milk'</t>
+  </si>
+  <si>
+    <t>'ripe bananas; lemon juice; full cream milk; vanilla paste; baking powder; butter; sugar; eggs; flour; walnuts; chopped candied ginger; Vanilla ice-cream'</t>
+  </si>
+  <si>
+    <t>'butter; salt; sugee (polenta); fresh milk; caster sugar; Grade A eggs; orange; self-raising flour; brandy (optional); pineapple; brown sugar; cream'</t>
+  </si>
+  <si>
+    <t>'Chicken; water; Salam Leaf; Oil; cloves; Garlic; Coriander; Ginger; Galangal'</t>
+  </si>
+  <si>
+    <t>'butter; flour; mixed spice (ground cinnamon; cloves; anise and cardamon); egg yolk; egg white; caster sugar; vanilla essence'</t>
+  </si>
+  <si>
+    <t>'dried adzuki beans; coconut milk; water; ginger; brown sugar; salt'</t>
+  </si>
+  <si>
+    <t>'white tofu; prawns; minced chicken; green onion;  egg; salt; white pepper; sesame oil; cornflour'</t>
+  </si>
+  <si>
+    <t>'plain flour; caster sugar; vanilla essence; milk; egg'</t>
+  </si>
+  <si>
+    <t>'iceberg lettuce; potatoes; green beans;  bean sprouts;  Chinese cabbage;  tomatoes; red onion;  spring onions; cucumber; red chillies; eggs; tofu'</t>
+  </si>
+  <si>
+    <t>'banana peppers; shallots; garlic; salt; chilli powder; vegetable oil'</t>
+  </si>
+  <si>
+    <t>'beef; kaffir lime leaves; coriander; tamarind juice; coconut milk; palm sugar; salt'</t>
+  </si>
+  <si>
+    <t>'squid; shallots; garlic; ginger; turmeric powder'</t>
+  </si>
+  <si>
+    <t>'plain flour'</t>
+  </si>
+  <si>
+    <t>'baking soda'</t>
+  </si>
+  <si>
+    <t>'baking powder'</t>
+  </si>
+  <si>
+    <t>'egg; milk'</t>
+  </si>
+  <si>
+    <t>'light sour cream'</t>
+  </si>
+  <si>
+    <t>'mustard'</t>
+  </si>
+  <si>
+    <t>'horseradish cream'</t>
+  </si>
+  <si>
+    <t>' chives'</t>
+  </si>
+  <si>
+    <t>'black pepper'</t>
+  </si>
+  <si>
+    <t>'smoked salmon'</t>
+  </si>
+  <si>
+    <t>'unsmoked back bacon'</t>
+  </si>
+  <si>
+    <t>'portabello mushroom'</t>
+  </si>
+  <si>
+    <t>'cherry tomatoes'</t>
+  </si>
+  <si>
+    <t>'300g dried shrimps; 2 tablespoons Nonya Sambal chilly; 1 teaspoon fine sugar; 2 kaffir lime leaves'</t>
+  </si>
+  <si>
+    <t>'350g vegetarian chicken;125ml cooking oil;500g glutinous rice;15 stalks blue pea flower;5 meters hemp string;8 pandan leaves;0.5 teaspoons of salt;36 pcs dried bamboo leaves;2 tablespoons or 12g biryani powder;2 tablespoons water;2 teaspoons mushroom stock;50g brown sugar;50g winter melon'</t>
+  </si>
+  <si>
+    <t>'4 large yellow capsicums; 2 cups cooked rice; 80g French beans; 100g canned corn kernels; 1 large tomato; 4 tablespoons extra virgin olive oil; 0.5 teaspoon of salt; 0.5 teaspoon of pepper; 10g coriander; 100g shredded cheese'</t>
+  </si>
+  <si>
+    <t>'750g chicken;2 tablespoons meat curry powder;2 heaped teaspoons chilly powder;2 tablespoons cooking oil;2 potatoes;500ml water1 spring curry leaf;250ml coconut milk;1 piece tamarind peel;2 teaspoons of salt'</t>
+  </si>
+  <si>
+    <t>'500g small prawns; 4 tablespoons garlic; 1 White cabbage; 2 cups green beans; 5 stalks leeks; 2 carrots; 10 Chinese mushrooms; 2 tablespoons light soy sauce; 1 teaspoon salt; Pepper; 1 tablespoon sugar'</t>
+  </si>
+  <si>
+    <t>'175ml Cooking Oil;750ml water;75g tamarind pulp;900g Mackerel - sliced into 11/2 inch pieces;2 Kaffir Lime Leaves (optional);0.5 teaspoon Sugar;2.5 teaspoon Salt;20 young Lady Fingers / Okra;'</t>
+  </si>
+  <si>
+    <t>'200g Sago Pearl;200g Gula Melaka (Palm Sugar);250ml Coconut Milk;1 Pandan Leaf (Screwpine Leaf)- shred with a fork &amp; tie into a knot;700ml  Water;0.5 teaspoons of Salt'</t>
+  </si>
+  <si>
+    <t>'1 small yam bean;1 guava;1 cucumber;1 carrot;0.5 green papaya;1 cup peeled pomelo sacs'</t>
+  </si>
+  <si>
+    <t>'4 medium-sized ikan selar or horse mackerel; 1 tablespoon tamarind paste; 1 teaspoon dried shrimp paste; 1 stalk lemongrass; 3 red chilly; 1/2 onion; 4 whole kaffir lime leaves; 1/2 teaspoon salt; 1/2 teaspoon sugar'</t>
+  </si>
+  <si>
+    <t>'20 pieces spring roll wrappers; 3 tablespoons plain flour; cooking oil'</t>
+  </si>
+  <si>
+    <t>'3 tablespoons cooking oil;3cm cinnamon stick;2 star anise;2 cloves;3 shallots;2 cloves garlic;4 tablespoons fish curry powder;125ml water;15g tamarind paste;2 tablespoons palm sugar;600g pineapple;100ml coconut milk;1 teaspoon salt'</t>
+  </si>
+  <si>
+    <t>'300g chicken;300g belly pork;6 tablespoons cooking oil;1.5 tablespoons bean paste or tau cheo;40g palm sugar;10 dried shitake mushrooms;80ml water;2 potatoes;1 teaspoon dark soya sauce;2 teaspoons salt'</t>
+  </si>
+  <si>
+    <t>'6 tablespoons cooking oil;3 shallots;2 cloves garlic;2 shallots;1 tablespoon soya bean paste;150g prawns;100g chicken meat;400g fresh yellow egg noodles;3 stalks mustard green “choy sum”;1 cup bean sprouts;0.5 cup water;0.5 teaspoon dark soya sauce;1 tablespoon light soya sauce;2 teaspoons sugar;0.25 teaspoon ground white pepper;0.5 teaspoon of Salt'</t>
+  </si>
+  <si>
+    <t>'100 ml cooking oil; 1 big onion; 700 g chicken; 1/2 tablespoon brown sugar; 3 pieces kaffir lime leaves; 125 ml water; 125 ml thick coconut milk; 1 tablespoon lime juice; Salt'</t>
+  </si>
+  <si>
+    <t>'2kg glutinous rice;300g dried prawns;500g lean pork;100g candied winter melon;4 stalks lemon grass;5cm knob galangal;50g dried chilly;5 cloves garlic;10 shallots;3 tablespoons coriander seeds,;100 g sugar;5 Blue pea flowers;3 bundles large pandan leaves'</t>
+  </si>
+  <si>
+    <t>'2 pieces hard tofu (tau kwa);100g sweet corn kernels;1 red bell pepper;8 snow pea pods'</t>
+  </si>
+  <si>
+    <t>'500g round cabbage ;100g pork belly;10g dried black fungus;5g dried lily buds;10g sweet dried bean curd;20g dried tang hoon;10g dried mushrooms;10g dried prawns;3 cloves fresh garlic;10g tau cheoh paste;1 tablespoon dark soya sauce;5 tablespoons cooking oil;1 teaspoon chicken seasoning powder'</t>
+  </si>
+  <si>
+    <t>'16 pieces chicken drummets;2 tablespoons ginger juice;1 tablespoon corn flour;1 tablespoon chilly flakes;1 tablespoon oyster sauce;1 teaspoon chicken stock granules;0.25 teaspoon dark soya sauce;10 kaffir lime leaves;2 tablespoons honey;1 tablespoon salt'</t>
+  </si>
+  <si>
+    <t>'4kg turkey;1 medium-sized onion;1 stalk carrot;1 stick celery;1 small bunch Thai sweet basil;1 small bunch kaffir lime leaves;1 small bunch laksa leaves;1 teaspoon salt;1 tablespoon dried shrimp paste;0.75 cup vegetable or olive oil;2 teaspoons of Pepper;1 spring kaffir lime leaves;1 tablespoon corn flour;1 cup white wine'</t>
+  </si>
+  <si>
+    <t>'300g sweet potato flesh; 150g coarse sugar; 100ml water; 150g tapioca flour; 250ml thick coconut milk; 0.5 teaspoon of salt; 100g grated coconut flesh'</t>
+  </si>
+  <si>
+    <t>'500g glutinous rice;1 tablespoon freshly ground turmeric;1 pc tamarind peel;1 teaspoon pepper corns;0.5  teaspoon of salt;32 pcs dried bamboo leaves;5 meters hemp string'</t>
+  </si>
+  <si>
+    <t>'0.5kg pork belly;3 heaped tablespoons tamarind paste;1 cup water;1 tablespoon salt;2 teaspoons sugar'</t>
+  </si>
+  <si>
+    <t>'1 skinless chicken breast;2 chicken drumsticks;2 cups rice;2 tablespoons oil;5cm piece of ginger;1 stalk scallion;6 shiitake mushrooms;CHICKEN MARINADE;2 tablespoons oyster sauce;1 tablespoon soy sauce;0.5 teaspoon corn starch;0.5 teaspoon sesame oil;3 dashes white pepper;0.25 teaspoon sugar;1 tablespoon Shaoxing wine'</t>
+  </si>
+  <si>
+    <t>'2 tablespoons cooking oil;3 litres water;700g pork ribs;2 teaspoon salt;600g yellow noodles;200g dried vermicelli'</t>
+  </si>
+  <si>
+    <t>'1 tablespoon black pepper;4 tablespoons melted unsalted butter;3 cloves garlic;1/8 small onion;1 kilo crab;1 tablespoon oyster sauce;1/2 tablespoon sugar ;2 tablespoons water;Salt'</t>
+  </si>
+  <si>
+    <t>'500g pork mince;1 large onion;2 potatoes;250g frozen peas;1 teaspoon dark soya sauce;1 teaspoon salt;1 small stick of cinnamon;3 cloves;1 dash of pepper;2 teaspoons vegetable oil'</t>
+  </si>
+  <si>
+    <t>'0.5 litres water;400g chicken meat or spare ribs;1 piece dried squid;1 tablespoon chicken stock granules;8 red dates;0.25 teaspoon pepper;1 carrot;350g lotus roots;0.5 teaspoon of Salt'</t>
+  </si>
+  <si>
+    <t>'1 kg clams;1 onion;4 cloves garlic;2 tablespoons vegetable oil;0.5 cup Chinese rice wine;5 slices ginger;2 chilies;0.5 tablespoon sesame oil;1 spring spring onion;1 tablespoon light soya sauce'</t>
+  </si>
+  <si>
+    <t>'8 large prawns;3 tablespoons butter;0.5 teaspoon of Salt;0.5 teaspoon of pepper'</t>
+  </si>
+  <si>
+    <t>'500g fish fillet;500g fish bones;3 ginger;1 tablespoon Tianjin preserved vegetables;1 teaspoon of Dried seaweed;1 tablespoon light soy sauce;0.5 tablespoon sesame oil;1 teaspoon rice wine;1 teaspoon of Pepper;2 tablespoons hua tiao wine;2 litres water;2 slices ginger;2 stalks spring onions;2 stalks coriander;2 cups cooked rice'</t>
+  </si>
+  <si>
+    <t>'400 g cod fillet;0.5 teaspoon of salt;0.5 teaspoon of white pepper;1 big tomato;1 piece sour plum;200g silken tofu;4 slices of ginger;2 tablespoons cooking oil;2 cloves garlic;40g pork;100g preserved mustard'</t>
+  </si>
+  <si>
+    <t>'1kg white glutinous rice;80g Chinese dried mushrooms;200g Chinese sausages;20 g dried prawns;100g shallots;10 g peanuts;0.5 teaspoon of Salt;2 teaspoon of light soya sauce;2 teaspoon of dark soya sauce;2 spring onions'</t>
+  </si>
+  <si>
+    <t>'1 teaspoon of light soya sauce;1 teaspoon of dark soya sauce'</t>
+  </si>
+  <si>
+    <t>'2kg glutinous rice;500g pork hock with skin;100g lean pork;30 small dried shiitake mushrooms;30 dried Chinese chestnuts;10 cloves garlic,;2 teaspoon of Soy sauce;5 spice powder;0.5 teaspoon of salt;0.5 teaspoon of pepper;20 salted egg yolks;3 bundles bamboo leaves'</t>
+  </si>
+  <si>
+    <t>'2 pieces golden snapper fish or ikan jenahak;125ml cooking oil;6 shallots;6 cloves garlic;50g tamarind pulp;10g red chilli padi;2 tablespoons sugar;1 teaspoon salt'</t>
+  </si>
+  <si>
+    <t>'1 large snapper or pomfret;1 packet salted vegetables (kiamchye);3 pickled plums;1 teaspoon corn flour;2 large tomatoes;1 red chili;2 Coriander;5 teaspoon of Sesame oil'</t>
+  </si>
+  <si>
+    <t>'300g dried egg noodles ;2 eggs;100g dried shrimps;8 dried shiitake mushrooms;1 teaspoon sugar;1 tablespoon soy sauce;3 tablespoons oyster sauce;3 stalks spring onions;1 spring of coriander;500ml of Water;0.5 teaspoon of Salt;0.5 teaspoon of pepper;5 teaspoon of cooking Oil'</t>
+  </si>
+  <si>
+    <t>'4 chicken eggs;500ml water;125ml fresh milk;1 teaspoon chicken stock granules;0.5 teaspoon ground pepper;2 century eggs;1 salted egg yolk;2 crabsticks;1 tablespoons chopped spring onions;1 teaspoon sesame oil;0.5 teaspoon salt'</t>
+  </si>
+  <si>
+    <t>'60g butter;2 tablespoons cooking oil;3 shallots;6 birds eye chillies;3 sprigs curry leaves;3 salted egg yolks;150ml evaporated milk;3 tablespoons water;500g fresh medium sized prawns;0.5 teaspoon sugar;0.5 teaspoon salt'</t>
+  </si>
+  <si>
+    <t>'2 cloves garlic;5g ginger;10g onions;30g pork belly;2 prawns;5 pieces clams;50g cabbage;6 pieces celery;10g carrots;5g Chinese chives;1 piece Chinese mushrooms;150g wheat flour noodles;100ml of Chicken stock ;600ml Hua Tiao wine ;0.25 teaspoon salt;0.25 teaspoon Chicken powder ;0.25 teaspoon oyster sauce;0.25 teaspoon sugar;15g peanuts ;10g seaweed;3 Spring onions;0.25 teaspoon of white pepper powder '</t>
+  </si>
+  <si>
+    <t>'1 pound beef top sirloin steak ;0.25 cup soy sauce ;2 tablespoons white sugar ;2 tablespoons cornstarch ;0.5 teaspoon ground ginger ;3 tablespoons vegetable oil;1 divided red onion;1 green bell pepper (cut into 1-inch squares);2 tomatoes (cut into 1-inch squares, cut into wedges)'</t>
+  </si>
+  <si>
+    <t>'1 cup confectioners sugar ;3 cups all-purpose flour ;1 cup butter ;1 egg beaten 1 dash vanilla ;0.7 cup white sugar ;100ml water ;9 eggs;1 beaten dash vanilla;1 cup evaporated milk'</t>
+  </si>
+  <si>
+    <t>'0.5 chicken;2 potatoes;0.5 cup oil;60g chicken curry powder;2 onions;2 lemon grass;2 cups water;0.5 cup coconut milk;0.5 cup evaporated milk;4 teaspoons salt;0.5 teaspoon sugar;5 curry leaves;5 cloves garlic;10 cloves shallot;3 stalks lemon grass'</t>
+  </si>
+  <si>
+    <t>'2 chicken whole legs;2 potatoes;5 teaspoon of Cooking oil;375ml water;12 ml thick coconut milk;2 whole tomatoes;1 teaspoon salt;1 teaspoon sugar;1 cinnamon stick;3 cloves;3 cardamons;1 bay leaf;1 big onion;2 green chillies;12g young ginger;20g green chillies;60g shallots;3 cloves garlic;6 cashew nuts;0.5 tablespoon coriander seeds;0.5 teaspoon fennel;0.5 tablespoon cumin;0.5 teaspoon turmeric powder;0.5 teaspoon peppercorns;1 sprig coriander leaves;1 tablespoon shallot crisps'</t>
+  </si>
+  <si>
+    <t>'0.5 cups basmati rice;4 pieces cardamom;5 cloves;1 cinnamon stick;1 good pinch saffron strands;1 cup water;1 teaspoon salt;4 boneless chicken leg;4 heaped tablespoons Indian yoghurt;1 teaspoon smoked paprika;1 tablespoon grated ginger;1 teaspoon cracked black pepper;1 teaspoon turmeric powder;1 tablespoon cumin powder;1 teaspoon sea salt'</t>
+  </si>
+  <si>
+    <t>'1 teaspoon sugar;0.75 cup warm water;0.25 oz active dry yeast;2 cups all-purpose flour;0.5 cup plain yogurt;1 tablespoon oil;5 teaspoon of Some oil, for greasing the skillet;3 tablespoons melted salted butter'</t>
+  </si>
+  <si>
+    <t>'1 lb chicken legs;5 teaspoon of Oil, for basting;1 lime, cut into wedges;0.5 cup Greek yogurt;1 teaspoon finely minced ginger;1 teaspoon finely minced garlic;0.5 teaspoon Garam Masala;0.25 teaspoon cayenne pepper;2 tablespoons lime juice;1 tablespoons oil;0.5 teaspoons salt or to taste;0.25 teaspoon turmeric powder;2g Red coloring, optional'</t>
+  </si>
+  <si>
+    <t>'580g All purpose flour ;1.5 teaspoon Kosher salt;1 teaspoon Granulated sugar;0.75 cup Ghee, room temperature ;1 large Egg, beaten;0.75 cup Whole milk;0.5 cup Water'</t>
+  </si>
+  <si>
+    <t>'0.5 cup of all-purpose flour (if you are familiar with Indian wheat flour or durum aata you can use that as well);2 teaspoon semolina (cream of wheat);2 teaspoon oil;1 teaspoon salt;0.5 ajwain seeds (optional);0.7 cups of water;2 medium sized potatoes (I use Yukon gold);0.5 cup sweet green peas;1 cup thinly sliced onions;1 teaspoon cumin seeds;1 teaspoon minced green chilly;0.5 teaspoon coriander powder (optional)'</t>
+  </si>
+  <si>
+    <t>'2 ripe mangoes, peeled and diced, about 1 lb.;5 tablespoons honey or agave nectar, or to taste;1 cup ice;1 heaping cup plain yogurt'</t>
+  </si>
+  <si>
+    <t>'1 lb shrimp, tiger prawn preferred, shelled and deveined, tails on Bamboo skewers, soaked in water before using Oil, for basting;0.5 tablespoon chopped cilantro;1 lime, cut into wedges;0.3 cup Greek yogurt;1 teaspoon finely minced garlic;0.5 teaspoon Garam Masala;0.25 teaspoon chili powder;2 tablespoons lime juice;1 tablespoons oil;0.5 teaspoons salt or to taste;0.25 teaspoon turmeric powder;5g Red coloring, optional'</t>
+  </si>
+  <si>
+    <t>'1 lb Tandoori Chicken;4 tablespoons butter;1 teaspoon finely minced ginger;2 teaspoons finely minced garlic;120ml canned tomato paste;2 tablespoons chili powder;0.5 teaspoon Garam Masala;2 tablespoons ketchup;0.5 teaspoon sugar;0.5 teaspoon of Salt, to taste;120ml water;4 tablespoons heavy whipping cream;2 sprigs cilantro, leaves only, roughly chopped'</t>
+  </si>
+  <si>
+    <t>'2 tablespoons vegetable oil;0.75 teaspoon cumin seeds;1 large onion, minced;2 teaspoons ginger-garlic paste;3 medium sized ripe tomatoes, pureed;0.5 teaspoon coriander powder;0.5 teaspoon cumin powder;0.25 teaspoon turmeric powder;0.25 teaspoon chili powder or according to taste;2 tablespoons dry kasoori methi;2 tablespoons heavy cream, optional;0.5 teaspoon of Salt;15 fresh white button mushrooms;1 large green or red bell pepper, cubed;0.25 teaspoon turmeric;0.25 teaspoon chili powder, or to taste;0.25 cup whole Greek yogurt or strained yogurt;1 tablespoon oil'</t>
+  </si>
+  <si>
+    <t>'1 medium cauliflower, cut into florets;2 large russet potatoes, cubed;4 tablespoons canola oil;0.5 teaspoon black mustard seeds (or regular if cannot find black);0.5 teaspoon cumin seeds;0.5 teaspoon coriander seeds, crushed in a mortar and pestle;1 medium onion, diced;1 Jalapeno or any hot green pepper, sliced (can use seeded or 1/2 seeded to tone down heat);1 medium tomato, diced;4 garlic cloves, minced;1 small piece of fresh ginger (thin 1 inch), grated on small hole grater or ginger grater;0.5 teaspoon red pepper chili powder;0.5 teaspoon turmeric powder;0.5 teaspoon salt or according to taste;8 tablespoons of water'</t>
+  </si>
+  <si>
+    <t>'1 pack seafood curry paste;6 large prawns;6 squids;6 scallops;0.5 lb. seabass fillet (cut into small cubes/pieces);1 tomato (cut into wedges);2 tablespoons coconut milk;1 tablespoon tamarind pulp (soaked in 4 tablespoons water and extract the juice);2 shallots (peeled and sliced);0.5 cups water;1 tablespoon oil;0.5 teaspoon of Salt to taste;1 sprig curry leaves (optional)'</t>
+  </si>
+  <si>
+    <t>'2 lbs chicken (preferably thigh meat, boneless and skinless, cut into 2-3 inch pieces);2 teaspoons ginger paste;0.5 tablespoons garlic paste;1 teaspoons red chilly powder;0.5 teaspoon ground black pepper;0.5 teaspoon of Salt as per taste;3 tablespoon cooking oil;2 teaspoons lime/lemon juice;2 pinches of food color (deep orange, totally optional);4 large tomatoes, quartered;0.5 tablespoons garlic paste;2 teaspoons ginger paste;1 jalapeno;1 2-inch cinnamon piece;1 bay leaf;4 cloves;2 green cardamom;6 whole black pepper;2 tablespoons ketchup;2 teaspoon sugar;0.5 teaspoon red chili powder;0.5 teaspoon dried fenugreek leaves;0.5 teaspoon of Salt as per taste;2 tablespoons cooking oil;2 tablespoon butter;0.5 cup water'</t>
+  </si>
+  <si>
+    <t>'1 whole chicken, cut up into 8 pieces and skin removed onion, chopped;1 tablespoon tomato paste;0.5 teaspoon of Salt as per taste;0.5 teaspoon of pepper as per taste;3 tablespoons oil;0.5 cup vinegar (white);4 dried red Chile peppers (you can use any moderately hot Chile and adjust the quantity as per you liking);4 cloves;8 garlic cloves, skin removed;1 2inch piece fresh ginger, peeled;1 teaspoon paprika powder;0.25 teaspoon ground cinnamon;0.5 teaspoon ground cumin;0.5 teaspoon dry mustard;1 teaspoon sugar'</t>
+  </si>
+  <si>
+    <t>'10 oz skinless and boneless chicken breast, cut into 1/2-inch cubes;1 tablespoon butter;2 cloves garlic, minced;1/2 jalapeno, deseeded;0.5 teaspoon of Salt to taste;1 12-inches store-bought pizza crust or three (3) 7-inches mini pizza crusts;1 teaspoon of Olive oil for brushing;0.25 onion, thinly sliced;1 cup mozzarella cheese;2 sprig of coriander leaves/cilantro, chopped, save some for garnish;0.5 teaspoon ground cumin;0.5 teaspoon ground cayenne pepper;0.5 teaspoon ground garam masala;0.5 teaspoon minced fresh ginger;0.25 teaspoon salt;0.25 teaspoon ground black pepper;1 tablespoon lemon juice;2 tablespoons plain yogurt;0.5 teasponn of cinnamon;4oz tomato sauce;2 tablespoons plain yogurt;2 tablespoons heavy cream;0.5 teaspoon cumin;0.5 teaspoon paprika;0.5 teaspoon garam masala'</t>
+  </si>
+  <si>
+    <t>'600g boneless, skinless chicken breast;4 tablespoons vegetable oil;1 tablespoon minced garlic;1 teaspoon peeled and finely grated fresh ginger;1 onion, grated on the largest grating holes on a box grater or shredded in a food processor;0.75 teaspoon cumin seeds;4 whole green cardamom pods;1 large fully ripe tomato, cut into 4 pieces;0.25 heaping teaspoon ground turmeric;0.75 teaspoon ground red pepper (cayenne);0.75 teaspoon salt;0.75 teaspoon ground black pepper'</t>
+  </si>
+  <si>
+    <t>'2 cups whole wheat flour (or stone ground drum-wheat also known as “Atta”);1 cup water (approximately);1 teaspoon salt;2g flour in a shallow plate or pie dish to help with coating and dusting while rolling the chapattis'</t>
+  </si>
+  <si>
+    <t>'500g ripe but firm green mango;1 sticks cinnamon (about 2 inch);2 whole cloves;1 teaspoon cumin seeds;1 teaspoon coriander seeds;2 cardamom pods, cracked;1 teaspoon ginger, grated;3 whole dry red chilly;1 clove garlic, crushed;0.75 cup demerara sugar;0.5 cup vinegar;0.75 cup water;1 teaspoon salt'</t>
+  </si>
+  <si>
+    <t>'60 g almonds;100 g icing sugar;50 g aged egg whites;20 g caster sugar;0.5 teaspoon of pink food colouring powder;0.5 teaspoon of rose essence'</t>
+  </si>
+  <si>
+    <t>'2  large onions;1  turmeric root;4  slices of lengkwas (galangal) root;2  stalks lemongrass;4  red chilly;5  candlenuts;1 tablespoon  belacan (shrimp paste);1 teaspoon  chopped garlic;0.5 kg chicken;1 cup coconut milk;1 cup water;2 teaspoons  salt ;0.5 teaspoon of White pepper;1 teaspoon  sugar'</t>
+  </si>
+  <si>
+    <t>'0.5 cup vegetable oil;2  onions;3  screw pine leaves (daun pandan);1 kg lean beef;3 cups coconut cream (santan pekat);2 tablespoons  tamarind pulp;0.5 cup desiccated coconut (kerisik);1 tablespoon sugar;0.5 teaspoon of Salt'</t>
+  </si>
+  <si>
+    <t>'4 tablespoons ghee;13 cm Brass moulds'</t>
+  </si>
+  <si>
+    <t>'1 teaspoon of Oil ;1  fresh chicken;3 tablespoons  garlic powder ;2 teaspoon  salt ;1 teaspoon  ground turmeric ;1 teaspoon  ground nutmeg;12 tablespoons  butter'</t>
+  </si>
+  <si>
+    <t>'3  large red onions;1  red bell pepper;10  large red chilli;200 g honey red tomatoes;1  bulb garlic;1  stick cinnamon;1 tablespoon fish sauce;4 tablespoons sugar;1 cup oil'</t>
+  </si>
+  <si>
+    <t>'1  firm beancurd;2 heaped tablespoons chunky peanut butter;2 heaped tablespoons  Hoisin sauce;3 tablespoons water;3 tablespoons vegetable oil;0.5 teaspoon of Salt;0.5 teaspoon of pepper;150 g tinned crabmeat;0.5  lime;1  cucumber;0.5  carrot'</t>
+  </si>
+  <si>
+    <t>'5  royal gala apples;150 g sugar ;220 g butter;80 g margarine;0.25 teaspoon  salt;250 g castor sugar;0.5 teaspoon  vanilla extract;300 g plain flour;1 tablespoon  baking powder;75 g ground almonds;1 teaspoon  ground cinnamon;5  Grade A eggs;80 ml milk;10 round bundt pan'</t>
+  </si>
+  <si>
+    <t>'6  sweet ripe bananas;2 tablespoons lemon juice;0.25 cup full cream milk;1 teaspoon vanilla paste;2 teaspoons baking powder;200 g butter;0.5 teaspoon of sugar;3  eggs;1 cup flour;0.5 cup walnuts;0.25 cup chopped candied ginger;100ml of Vanilla ice-cream'</t>
+  </si>
+  <si>
+    <t>'250 g good quality butter;0.25 teaspoon salt;90 g sugee/ polenta;150 ml fresh milk ;220 g caster sugar;3  Grade A eggs;1  orange;375 g self-raising flour;1 tablespoons  brandy (optional);1  pineapple;20g Extra butter;50 g brown sugar to sprinkle;1 bottle of cream for serving'</t>
+  </si>
+  <si>
+    <t>'4 piece Chicken;300ml water;2 piece Salam Leaf;5 teaspoon of Oil to fry;5 cloves Garlic;0.5 teaspoon Coriander;3 cm Ginger;3 cm Galangal'</t>
+  </si>
+  <si>
+    <t>'455 g butter;115 g flour;1 teaspoon mixed spice (ground cinnamon, cloves, anise and cardamon);17 egg yolks;5 egg whites;255 g caster sugar;2 teaspoons vanilla essence'</t>
+  </si>
+  <si>
+    <t>'150 g dried adzuki beans;1.5 can coconut milk;300 ml water;1 cm sliced ginger;130 g brown sugar , to taste;0.5 teaspoon of salt'</t>
+  </si>
+  <si>
+    <t>'4 firm white tofu squares;60 g prawns, peeled, deveined and minced;40 g minced chicken;1 green onion, chopped;1 egg, lightly beaten;0.5 teaspoon of salt to taste;0.5 teaspoon of white pepper to taste;1 teaspoon sesame oil;2 teaspoon cornflour;1 teaspoon of oil for frying'</t>
+  </si>
+  <si>
+    <t>'155g plain flour;2 tablespoons caster sugar;0.5 teaspoon vanilla essence;125ml milk;1 egg'</t>
+  </si>
+  <si>
+    <t>'1 small head iceberg lettuce, leaves separated;2 large potatoes, boiled and sliced;200g green beans, sliced, blanched;0.75 cup bean sprouts, blanched;0.5 cups shredded Chinese cabbage, blanched;2 medium tomatoes, cut into wedges;1 medium red onion, sliced;3 spring onions, cut in short lengths;1 cucumber, thinly sliced;2 fresh red chilly, seeded and thinly sliced;4 medium hard–boiled eggs, sliced;125g fried tofu, cut into cubes'</t>
+  </si>
+  <si>
+    <t>'4 fresh banana peppers, seeded and chopped;4 shallots, chopped;5 cloves garlic, chopped;2 tablespoon salt;1 teaspoon chilli powder;1 tablespoon vegetable oil'</t>
+  </si>
+  <si>
+    <t>'500 g lean beef, cut into long chunks;2 kaffir lime leaves;1 tablespoon ground coriander;120 ml tamarind juice;250 ml coconut milk;1 tablespoon palm sugar;0.5 teaspoon of salt to taste'</t>
+  </si>
+  <si>
+    <t>'300 g cleaned squid, scored;2 shallots;1 clove garlic;1.5 cm ginger;1 teaspoon turmeric powder'</t>
+  </si>
+  <si>
+    <t>'200g smoked salmon, slices'</t>
+  </si>
+  <si>
+    <t>'4 rashers good-quality lean unsmoked back bacon;2 slices granary or wholegrain bread, cut on the diagonal;2 good-quality free-range pork sausage, minimum 86% pork;2 free-range, omega-3 rich egg'</t>
+  </si>
+  <si>
+    <t>'2 large free range eggs'</t>
+  </si>
+  <si>
+    <t>'200g self-raising flour;1 teaspoon baking powder;1 egg;300ml milk;50g of butter;'</t>
+  </si>
+  <si>
+    <t>'2 slices white bread;1 large egg;5 slices smoked salmon'</t>
+  </si>
+  <si>
+    <t>'600g medium-sized potatoes;2 beef steaks (200g each)'</t>
+  </si>
+  <si>
+    <t>'1kg beef fillet - ask your butcher to cut it from the middle of the fillet and say you do not want the tail end or the head (chateaubriand) of the fillet;20g dried porcini mushrooms;400g chestnut or button mushroom, roughly sliced;1 beef stock cube'</t>
+  </si>
+  <si>
+    <t>'6 boneless skinless chicken breasts;cooked rice'</t>
+  </si>
+  <si>
+    <t>'5 slices of salmon fillet'</t>
+  </si>
+  <si>
+    <t>'6 pounds baby back pork ribs'</t>
+  </si>
+  <si>
+    <t>'6 bone-in pork shoulder chops, each 1/4- to 1/2-inch thick'</t>
+  </si>
+  <si>
+    <t>'1 pound ground dark-meat turkey'</t>
+  </si>
+  <si>
+    <t>'1 pounds manila or littleneck clams;'</t>
+  </si>
+  <si>
+    <t>'1 teaspoons fresh thyme leaves;1 medium zucchini, small dice;1 medium yellow squash or golden zucchini, small dice;1 small eggplant, small dice;2 tablespoons fresh basil leaves, torn in small pieces;'</t>
+  </si>
+  <si>
+    <t>'7 ounce skinless salmon fillets;'</t>
+  </si>
+  <si>
+    <t>'12 ounce salmon fillet, cut into 4 pieces'</t>
+  </si>
+  <si>
+    <t>'4 ounces uncooked rotini pasta'</t>
+  </si>
+  <si>
+    <t>'1 pound fully cooked sweet Italian sausage, sliced into 1/2-inch rounds;'</t>
+  </si>
+  <si>
+    <t>'4 cups uncooked elbow macaroni;2 stalks celery, chopped ;1 green bell pepper, seeded and chopped ;'</t>
+  </si>
+  <si>
+    <t>'16 ounce package shredded coleslaw mix'</t>
+  </si>
+  <si>
+    <t>'15 stalks dried chilly;45g 2 stalks of fresh lemongrass;15g fresh blue ginger;15g fresh turmeric'</t>
+  </si>
+  <si>
+    <t>'2 stalks lemon grass;1.5cm cinnamon stick;1 star anise;2 cardamons;3 shallots;1 clove garlic;5g young ginger'</t>
+  </si>
+  <si>
+    <t>'1kg Popiah skins; 5 heads Chinese lettuce; 4 Chinese sausages; 6 eggs; 2 cucumbers; 500g bean sprouts; 5 bunches fresh coriander; 100g Fried garlic; 1 cup roasted peanuts; 0.5 teaspoon of sweet black soy sauce; 0.5 teaspoon of Fresh garlic paste; 20 red chilly'</t>
+  </si>
+  <si>
+    <t>'20 Dried chilly - soaked in water and drained;18 Shallots - peeled;2 cloves Garlic - peeled;5 Candlenuts (Buah Keras);0.5 inch Fresh Turmeric (Kunyit) - peeled;1 inch Galangal (Lengkuas) - peeled;4 stalks Lemongrass - sliced;1.5 teaspoon belachan'</t>
+  </si>
+  <si>
+    <t>'80g rice flour; 80g tapioca flour; 1 egg; 300ml water; 1 teaspoon salt; 1 teaspoon sugar; 200g small prawns'</t>
+  </si>
+  <si>
+    <t>'1 lime'</t>
+  </si>
+  <si>
+    <t>'2 tablespoons cooking oil ; 2 springs curry Leaves ; 1 teaspoon mustard seeds ; 1/4 teaspoon cumin ; 1 clove garlic; 1 big onion; 3 tablespoons fish curry powder; 350 g pumpkin; 80 ml water; 50 g green peas; 2 tablespoons coconut milk ; 1 teaspoon sugar ; 1 teaspoon salt'</t>
+  </si>
+  <si>
+    <t>'20 shallots;3 cloves garlic'</t>
+  </si>
+  <si>
+    <t>'8 stalks fresh red chilly;3 stalks red chilly padi;40g toasted belachan'</t>
+  </si>
+  <si>
+    <t>'150g shallots;1 clove garlic;10g young ginger;10g galangal;10g turmeric;2 candle nuts;2 stalks lemon grass;5 stalks dried chilly;5 stalks bird’s eye chilly;10g toasted belachan'</t>
+  </si>
+  <si>
+    <t>'1 tablespoon chilly paste;4 shallots;2 cloves garlic;1 tablespoon honey;1 teaspoon salt'</t>
+  </si>
+  <si>
+    <t>'118ml cooking oil;35 stalks dried chilly;320 g shallots;4 tablespoons sugar ;1 teaspoon salt;250g dried prawns'</t>
+  </si>
+  <si>
+    <t>'RICE SEASONINGS;2 tablespoons soy sauce;0.5 tablespoon dark soy sauce;2 teaspoons cooking oil;0.5 teaspoon of salt'</t>
+  </si>
+  <si>
+    <t>'FOR THE SPICE PASTE:;10 dried chillies;10 shallots;2 cloves garlic;500g prawn heads and shells;20g rock sugar;CHILLI PASTE:;15 dried chillies;5 red fresh chillies;5 shallots;0.25 teaspoon salt;1 teaspoon sugar'</t>
+  </si>
+  <si>
+    <t>'TOPPING:;8 tablespoons nestum;1 handful curry leaves;2 chilly padi;1 teaspoon salt;1 tablespoon sugar;80 g salted butter'</t>
+  </si>
+  <si>
+    <t>'FOR THE SAUCE:;4 tablespoons water;1 tablespoon soy sauce;0.5 tablespoons Shaoxing wine;0.5 teaspoon of sugar'</t>
+  </si>
+  <si>
+    <t>'GARNISHING:;Garlic crisps;cooking oil'</t>
+  </si>
+  <si>
+    <t>'50 g caster sugar;50 ml water;2  egg yolks  ;125 g butter;2 tablespoons canned lychee'</t>
+  </si>
+  <si>
+    <t>'5 Fresh kaffir lime leaves;5 Fried shallots;5g  Fried garlic'</t>
+  </si>
+  <si>
+    <t>'2  star anise;3  cardamom pods;3  cloves;1  cinnamon Stick'</t>
+  </si>
+  <si>
+    <t>'180 g plain flour;220 g castor sugar;0.25 teaspoon salt;5  eggs;500 ml coconut milk;60 ml pandan juice;0.25 teaspoon pandan colouring'</t>
+  </si>
+  <si>
+    <t>'3 cloves Shallots;0.5 tomato;1 teaspoon shrimp paste;2 teaspoon salt;1 bunch Lemon Basil (kemangi);2 keylime;11 piece red chili'</t>
+  </si>
+  <si>
+    <t>'For the batter;50 g plain flour;1 egg;100ml of water'</t>
+  </si>
+  <si>
+    <t>'40g butter, melted;1 teaspoon rum or imitation rum essence;4 ripe bananas, sliced;500ml (2 cups) oil for frying'</t>
+  </si>
+  <si>
+    <t>'For the peanut sauce;1/2 cup of vegetable oil;1 1/4 cups raw unsalted peanuts;2 garlic cloves;4 spring onions, chopped;salt;1/2 teaspoon chilli powder;1 teaspoon soft brown sugar;1 tablespoon dark soy sauce;2 cups water;juice of 1 lemon'</t>
+  </si>
+  <si>
+    <t>'1 kg beef tenderloin, cut into 5 x 2.5 cm cubes;2 cm galangal, thinly sliced;3 stalks lemongrass, chopped;6 lime leaves;1 teaspoon ground turmeric;3 cans coconut milk'</t>
+  </si>
+  <si>
+    <t>'Spice blend;8 shallots;3 cloves garlic;1 cm ginger;2 cm galangal;6 dried chillies (deseeded and soaked in warm water to soften);1 lemongrass bulb, roughly chopped'</t>
+  </si>
+  <si>
+    <t>'1 pinch brown sugar;0.5 teaspoon of salt to taste;0.5 teaspoon of pepper to taste;2 tablespoon lime juice;4 tablespoon kecap manis (dark sweet soy sauce);2 tablespoon cooking oil'</t>
+  </si>
+  <si>
+    <t>'0.5 cups plain flour;2 teaspoons baking soda;2 teaspoons baking powder;1 egg;1 cup low-fat milk;0.5 cup light sour cream;1 teaspoon mustard;1 teaspoon horseradish cream'</t>
+  </si>
+  <si>
+    <t>'4 brown-cap portabello mushroom;16 cherry tomatoes on the vine, room temperature;3.5 oz glasses freshly-squeezed orange juice;1 orange cut into wedges;50g of fresh blueberries'</t>
+  </si>
+  <si>
+    <t>'6 teaspoon single cream or full cream milk;5g of butter'</t>
+  </si>
+  <si>
+    <t>'150g pack blueberry;20ml of golden or maple syrup'</t>
+  </si>
+  <si>
+    <t>'0.5 ripe avocado;0.5 lemon;5 pieces of watercress'</t>
+  </si>
+  <si>
+    <t>'10 parsley leaves, finely chopped;5ml of squeeze lemon juice'</t>
+  </si>
+  <si>
+    <t>'6 thin slices prosciutto;5g of plain flour, for dusting;500g pack all-butter puff pastry;1 egg;1 teaspoon fresh thyme leaf;75g butter;2 large shallot;2 tbsp freshly grated Parmesan;spring of thyme;1 bay leaf;1 teaspoon plain flour;'</t>
+  </si>
+  <si>
+    <t>'0.25 cup Real Lemon juice;8 ounces fresh sliced mushrooms'</t>
+  </si>
+  <si>
+    <t>'1 teaspoon ground ginger;1 teaspoon garlic powder;0.3 cup reduced sodium soy sauce;0.3 cup orange juice;0.25 cup honey;1 green onion, chopped'</t>
+  </si>
+  <si>
+    <t>'0.5 cups ketchup;3 tablespoons kosher salt;2 tablespoons chili powder;2 tablespoons packed dark brown sugar;2 tablespoons paprika;1 tablespoon garlic powder;2 teaspoons ground mustard;1 teaspoon freshly ground black pepper;2 full racks baby back pork ribs (about 5 to 6 pounds);0.5 cup water;0.3 cup packed dark brown sugar;0.25 cup light or dark molasses (not blackstrap);2 tablespoons cider vinegar;2 tablespoons Worcestershire sauce;1 tablespoon chili powder;2 teaspoons garlic powder;2 teaspoons paprika'</t>
+  </si>
+  <si>
+    <t>'1 large egg'</t>
+  </si>
+  <si>
+    <t>'0.5 teaspoon dried oregano;0.5 teaspoon fennel seeds;0.25 teaspoon red pepper flakes;0.25 cup ricotta cheese;1 large egg, lightly beaten;2 tablespoons finely chopped flat-leaf parsley;28-ounce can crushed tomatoes;1 slice of Freshly grated Parmesan cheese'</t>
+  </si>
+  <si>
+    <t>'1 pint cherry tomatoes;1 pound linguine;4 anchovy fillets, chopped;0.25 cup finely chopped Italian parsley'</t>
+  </si>
+  <si>
+    <t>'1 pound dried pasta, such as penne, cavatelli, or garganelli;0.5 a lemon (Finely grated zest and juice);1 cup crumbled feta cheese'</t>
+  </si>
+  <si>
+    <t>'0.25 cup vegetable oil;2 cloves garlic, sliced;3 cups seeded, julienned hothouse cucumbers, soaked in cold water to crisp; drained;0.3 cup chopped Asian basil;3 tablespoons chopped, roasted peanuts;1 teaspoon finely chopped garlic;3 Thai bird chiles or 1 serrano chile, chopped;3 tablespoons sugar;3 tablespoons minced ginger;3 tablespoons fish sauce;3 tablespoons lime juice;3 tablespoons water'</t>
+  </si>
+  <si>
+    <t>'5g of Toasted Almond Parsley Salsa, for serving;5g of Baked squash, for serving, optional;'</t>
+  </si>
+  <si>
+    <t>'2 cucumbers, chopped;10 cherry tomatoes, quartered;0.75 cup pitted black olives, sliced'</t>
+  </si>
+  <si>
+    <t>'8 ounces grape or cherry tomatoes, halved;1 pound dried pasta, such as rigatoni or farfalle;'</t>
+  </si>
+  <si>
+    <t>'0.25 cup grated carrot (optional);2 tablespoons chopped pimento peppers (optional)'</t>
+  </si>
+  <si>
+    <t>'1 cup mayonnaise;2 tablespoons sugar ;0.5 teaspoon salt;0.5 teaspoon pepper;0.5 teaspoon celery seed;0.5 teaspoon garlic powder;0.5 teaspoon onion powder;2 tablespoons cider vinegar'</t>
+  </si>
+  <si>
+    <t>'20g galangal; 5 stalks bird’s eye chilly; 1 stalk fresh red chilly; 300ml plum sauce; 1 teaspoon salt; 2 teaspoons cooking oil; 5 tablespoons crushed fried peanuts; 1 tablespoon toasted sesame seeds'</t>
+  </si>
+  <si>
+    <t>'5g of Shallot crisps'</t>
+  </si>
+  <si>
+    <t>'FOR THE GARNISH:;1 green onion;2 .5cm knob of ginger;A small handful of coriander'</t>
+  </si>
+  <si>
+    <t>'20  dried chilies;                                                                                                                                                            200 g onions;                                                                                                                                                            4  garlic cloves;                                                                                                                                                            1 inch fresh ginger;                                                                                                                                                            2 tablespoons coriander powder;                                                                                                                                                            1 teaspoon fennel powder;                                                                                                                                                            1 teaspoon cumin powder;                                                                                                                                                            15 pieces black peppercorns;                                                                                                                                                            1 inch fresh ginger;                                                                                                                                                            1 pinch nutmeg;                                                                                                                                                            1 cup water'</t>
+  </si>
+  <si>
+    <t>'For the sauce;30 g dry roasted peanuts;1 fresh red chillies, chopped;2 garlic cloves, minced;1 teaspoon sugar;1 teaspoon salt;2 teaspoon vinegar;70 ml water'</t>
+  </si>
+  <si>
+    <t>'2 teaspoon chives, chopped;2 teaspoon of black pepper'</t>
+  </si>
+  <si>
+    <t>'6 teaspoon olive oil;2g of cider vinegar'</t>
+  </si>
+  <si>
+    <t>'10g of butter as cooking oil'</t>
+  </si>
+  <si>
+    <t>'5g of butter;1 wedge'</t>
+  </si>
+  <si>
+    <t>'5 teaspoon of sunflower oil;2 handfuls mixed leaves dressing of your choice, to serve;50g butter, softened;1 small garlic clove, minced (optional)'</t>
+  </si>
+  <si>
+    <t>'1 teaspoon olive oil;5g of plain flour, for dusting;500g pack all-butter puff pastry;2g of Worcestershire sauce;2 teaspoon freshly grated Parmesan;1 teaspoon plain flour;1 teaspoon of brandy;1 bottle of red wine (optional)'</t>
+  </si>
+  <si>
+    <t>'0.25 cup unsifted flour;1 teaspoon salt;0.5 teaspoon black pepper;0.5 cup butter;1 tablespoon sugar;'</t>
+  </si>
+  <si>
+    <t>'3 tablespoons soy sauce;3 tablespoons Chinese rice wine or dry sherry;2 tablespoons granulated sugar;0.5 teaspoons kosher salt;0.5 teaspoon Chinese five-spice powder;1 tablespoon minced garlic;6 tablespoons cornstarch;5 teaspoon of Canola oil, for pan-frying'</t>
+  </si>
+  <si>
+    <t>'5 teaspoon of Vegetable oil;3 ounce of fresh white breadcrumbs;0.5 cup milk;0.5 teaspoons kosher salt, plus more to taste;5g of freshly ground black pepper;2 tablespoons olive oil;'</t>
+  </si>
+  <si>
+    <t>'0.5 teaspoon of Kosher salt;1 tablespoon olive oil;1 medium yellow onion, coarsely chopped;4 medium garlic cloves, minced;5g of freshly ground black pepper;'</t>
+  </si>
+  <si>
+    <t>'6 tablespoons extra-virgin olive oil;3 medium garlic cloves, sliced thin;1 cup canned whole tomatoes, cut into 1/2-inch strips, juice reserved;0.5 teaspoon of Kosher salt;5g of freshly ground black pepper;1 small yellow onion, small dice;'</t>
+  </si>
+  <si>
+    <t>'0.5 teaspoon of Coarse-grained salt;5g of freshly ground black pepper;1 shallot;1 tablespoons red wine vinegar;0.5 teaspoon of coarse grain salt;2 tablespoons capers, rinsed;1 cup fresh flat-leaf parsley;0.5 cup toasted almonds;1 teaspoon of Extra-virgin olive oil'</t>
+  </si>
+  <si>
+    <t>'0.5 onion, finely chopped;1 cup Italian-style salad dressing'</t>
+  </si>
+  <si>
+    <t>'1.5 teaspoons red pepper flakes;2 ounces Pecorino Romano cheese, for garnish'</t>
+  </si>
+  <si>
+    <t>'1 cup mayonnaise;0.25 cup distilled white vinegar ;0.8 cup white sugar ;1 tablespoon prepared yellow mustard ;0.5 teaspoons salt ;0.5 teaspoon ground black pepper ;1 large onion, chopped ;'</t>
+  </si>
+  <si>
     <t>'1. Heat oven to 150°C. ;2. Rinse dried shrimp. Dry with paper towels. ;3. Put dried shrimp into a food processor. Blitz until coarsely chopped. ;4. Place on oven tray, sprayed first with oil and add sambal chilly (and sugar, if using). Using a spoon, rub sambal well in till evenly mixed; the even red colour will indicate that the mixing has been done. ;5. Roast mixture in the oven for about 15 minutes or till golden brown. Scatter kaffir lime leaves at the end. Stir in and leave in the oven with the heat turned off for a few more minutes. ;6. Remove tray from the oven and cool. ;7. Place cooled dried shrimp into sterilised bottles. '</t>
   </si>
   <si>
@@ -1266,816 +1995,6 @@
   </si>
   <si>
     <t>'In a large bowl, mix mayonnaise, sugar, salt, pepper, celery seed, garlic powder, onion powder and cider vinegar. ;Toss coleslaw mix with dressing to coat. ;Chill at least 1 hour before serving.'</t>
-  </si>
-  <si>
-    <t>'dried shrimps;Nyonya Sambal chilly;fine sugar;lime leaves'</t>
-  </si>
-  <si>
-    <t>'vegetarian chicken;cooking oil;glutinous rice;blue pea flower;hemp string;pandan leaves;salt;dried bamboo leaves;biryani powder;water;mushroom stock;brown sugar;winter melon;dried chilly;lemongrass;blue ginger;turmeric'</t>
-  </si>
-  <si>
-    <t>'yellow capsicums;cooked rice;French beans;canned corn kernels;tomato;extra virgin olive oil; Salt;pepper;coriander;shredded cheese'</t>
-  </si>
-  <si>
-    <t>'chicken;meat curry powder;chilly powder;cooking oil;potato;water;curry leaf;coconut milk;tamarind peel;salt2 stalks lemon grass;cinnamon stick;anise;cardamon;shallots;garlic;ginger'</t>
-  </si>
-  <si>
-    <t>'small prawn;garlic;White cabbage;green bean;leeks;carrot;Chinese mushrooms;light soy sauce;salt;Pepper;sugar;Popiah skin;Chinese lettuce;Chinese sausages;egg;cucumber;bean sprout;coriander;Fried garlic;roasted peanuts;Sweet black soy sauce;garlic paste;red chilly'</t>
-  </si>
-  <si>
-    <t>'Cooking Oil;water;tamarind pulp;Mackerel;Kaffir Lime Leaves;Sugar;Salt;Lady Finger;dried chillye;shallot;garlic;candlenut;turmeric;galangal;lemongrass;belachan'</t>
-  </si>
-  <si>
-    <t>''</t>
-  </si>
-  <si>
-    <t>'Sago Pearl;Gula Melaka;Coconut Milk;Pandan Leaf;Water;Salt'</t>
-  </si>
-  <si>
-    <t>'yam bean;guava;cucumber;carrot;green papaya;pomelo sac;rice flour;tapioca flour;egg;water;salt;sugar;small prawn;galangal;bird’s eye chilly;fresh red chilly;plum sauce;salt;cooking oil;crushed fried peanuts;toasted sesame seeds'</t>
-  </si>
-  <si>
-    <t>'horse mackerel;tamarind paste;dried shrimp paste;lemongrass;chilly;onion;lime leave;salt;sugar;line'</t>
-  </si>
-  <si>
-    <t>'spring roll wrappers;flour;cooking oil;curry Leaves;mustard seed;cumin; garlic;onion; fish curry powder; pumpkin; water; green peas; coconut milk; sugar; salt'</t>
-  </si>
-  <si>
-    <t>'cooking oil;cinnamon stick;star anise;clove;shallot;garlic;fish curry powder;water;tamarind paste;palm sugar;pineapple;coconut milk;salt'</t>
-  </si>
-  <si>
-    <t>'chicken;belly pork;cooking oil;bean paste;palm sugar;shitake mushroom;water;potato;dark soya sauce;salt;shallot;garlic'</t>
-  </si>
-  <si>
-    <t>'cooking oil;shallots;garlic;shallot;soya bean paste;prawn;chicken;yellow egg noodles;mustard green;bean sprout;water;dark soya sauce;light soya sauce;sugar;white pepper;Salt;fresh red chilly;red chilly padi;belachan;shallot crisp'</t>
-  </si>
-  <si>
-    <t>'cooking oil;onion;chicken;brown sugar;kaffir lime leave;water;coconut milk;lime juice;Salt;shallot;garlic;ginger;galangal;turmeric;candle nut;lemon grass;dried chilly;bird’s eye chilly;belachan'</t>
-  </si>
-  <si>
-    <t>'glutinous rice;dried prawns;lean pork;candied winter melon;lemon grass;knob galangal;dried chilly;garlic;shallot;coriander seed;sugar;Blue pea flowers;pandan leave'</t>
-  </si>
-  <si>
-    <t>'hard tofu;sweet corn kernel;red bell pepper;snow pea pod;chilly paste;shallot;garlic;honey;salt'</t>
-  </si>
-  <si>
-    <t>'round cabbage;pork belly;dried black fungus;dried lily buds;sweet dried bean curd;dried tang hoon;dried mushrooms;dried prawn;fresh garlic;tau cheoh paste;dark soya sauce;cooking oil;chicken seasoning powder'</t>
-  </si>
-  <si>
-    <t>'chicken drummets;ginger juice; corn flour;chilly flakes;oyster sauce; chicken stock granules; dark soya sauce;lime leaves;honey;salt'</t>
-  </si>
-  <si>
-    <t>'turkey;onion;carrot; celery;Thai sweet basil;kaffir lime leave;laksa leaves;salt;dried shrimp paste;vegetable or olive oil;Pepper;kaffir lime leaves;corn flour;white wine'</t>
-  </si>
-  <si>
-    <t>'sweet potato flesh;coarse sugar;water;tapioca flour;thick coconut milk;salt;coconut flesh'</t>
-  </si>
-  <si>
-    <t>'glutinous rice;freshly ground turmeric;tamarind peel;pepper corn;salt;dried bamboo leave;hemp string;cooking oil;dried chilly;shallot;sugar;salt;dried prawn'</t>
-  </si>
-  <si>
-    <t>'pork belly;tamarind paste;water;salt;sugar'</t>
-  </si>
-  <si>
-    <t>'skinless chicken breast;chicken drumsticks;rice;corn oil;ginger;scallion;mushroom;oyster sauce;soy sauce;corn starch;sesame oil;white pepper;sugar;shaoxing wine;dark soy sauce;salt'</t>
-  </si>
-  <si>
-    <t>'corn cooking oil;water;pork ribs;salt;yellow noodle;dried vermicelli;dried chiilies;shallot;garlic;prawn heads and shells;rock sugar;salt;sugar;eggs kang kong;bean sprout;shallot crips'</t>
-  </si>
-  <si>
-    <t>'black pepper;melted unsalted butter;garlic;onion;crab;oyster sauce;sugar;water;salt'</t>
-  </si>
-  <si>
-    <t>'pork mince;onion;patato;frozen peas;dark soya sauce;salt;stick of cinnamon;clovea;pepper;vegetable oil'</t>
-  </si>
-  <si>
-    <t>'water;chicken meat or spare ribs;dried squid;chicken stock granules;date;pepper;carrot;lotus root;salt'</t>
-  </si>
-  <si>
-    <t>'claim; onion;garlic;vegetable oil;chinese rice wine;ginger;chilies;sasame oil;spring onion;light soya sauce'</t>
-  </si>
-  <si>
-    <t>'prawn;butter;salt;pepper'</t>
-  </si>
-  <si>
-    <t>'fish fillet;fish bones;ginger;tianjin preserved vegetable;dried seaweed;light soya sauce;sesame oil;rice wine;pepper;hua tiao wine;water;spring onion;coriander;cooked rice'</t>
-  </si>
-  <si>
-    <t>'cod fillet;salt;white pepper;tomato;sour plum;silken tofu;ginger;cooking oil;garlic;pork;preserved mustard;water;soy sauce;shaoxing wine;sugar;onion;coriander'</t>
-  </si>
-  <si>
-    <t>'glutinous rice;chinese dried mushroom;chinese sausage;dried prawn;shallot;peanut;salt;light and dark soya sauce;spring onion'</t>
-  </si>
-  <si>
-    <t>'prawn;garlic;wolfberry;chinese rice wine;sugar;chicken bouillon;salt;water'</t>
-  </si>
-  <si>
-    <t>'glutinous rice;pork hock with skin;lean pork;dried shiitake mushroom;chinese chestnut;garlic;soy sauce;five-spice powder;salt;pepper;salted egg yolk;bamboo leave'</t>
-  </si>
-  <si>
-    <t>'golden snapper fish;cooking oil;shallot;garlic;tamarind pulp;chili padi;sugar;salt'</t>
-  </si>
-  <si>
-    <t>'snapper;salted vegetable;plum;corn flour;tomato;red chili;coriander;sesame oil'</t>
-  </si>
-  <si>
-    <t>'dried egg noodle;egg;dried shrimp;shiitake mushroom;sugar;soy sauce;oyster sauce;onion;coriander;water;salt;pepper;cooking oil'</t>
-  </si>
-  <si>
-    <t>'egg;water;fresh milk;chicken stock granule;ground pepper;century egg;salted egg yolk;crabstick;spring onion;sesame oil;salt;garlic crips cooking oil'</t>
-  </si>
-  <si>
-    <t>'butter;cooking oil;shallot;eye chilies;bird eye chilies;curry leave;salted egg yolk;evaporated milk;water;prawn;sugar;salt'</t>
-  </si>
-  <si>
-    <t>'garlic;ginger;onion;pork belly;prawn;clam;cabbage;celery;carrot;chinese chive;chinese mushroom;wheat flour noodle;chicken stock;hua tiao wine;salt;chicken powder;oyster sauce;sugar;peanut;seaweed;onion;pepper powder'</t>
-  </si>
-  <si>
-    <t>'beef top sirlion steak;soy sauce;sugar;corn starch;ginger;vegetable oil;onion;green bell pepper;tomato'</t>
-  </si>
-  <si>
-    <t>'confectioner sugar;flour;egg;butter;dash vanilla;sugar;water;evaporated milk'</t>
-  </si>
-  <si>
-    <t>'chicken; potatoes; oil; chicken curry powder; onions; lemon grass; water; coconut milk; evaporated milk; salt; sugar; curry leaves; garlic; shallot; lemon grass'</t>
-  </si>
-  <si>
-    <t>'chicken whole legs; potatoes; Cooking oil; water; coconut milk; tomatoes; salt; sugar; cinnamon stick; cloves; cardamons; bay leaf; big onion; green chillies; young ginger;  green chillies; shallots; garlic; cashew nuts; coriander seeds; fennel; cumin; turmeric powder;  peppercorns; coriander leaves; shallot crisps'</t>
-  </si>
-  <si>
-    <t>'basmati rice; cardamom; cloves; cinnamon stick; saffron strands; water; salt; boneless chicken leg; Indian yoghurt;  smoked paprika; grated ginger; cracked black pepper; turmeric powder; cumin powder; sea salt'</t>
-  </si>
-  <si>
-    <t>'sugar; warm water; active dry yeast; all-purpose flour; plain yogurt; oil; salted butter'</t>
-  </si>
-  <si>
-    <t>'chicken legs; Oil; lime; Greek yogurt; minced ginger; minced garlic; Garam Masala; cayenne pepper; lime juice; oil; salt; turmeric powder; Red coloring '</t>
-  </si>
-  <si>
-    <t>'All purpose flour; Kosher salt; Granulated sugar; Ghee; Egg; milk; water'</t>
-  </si>
-  <si>
-    <t>'all-purpose flour; semolina (cream of wheat); oil; salt; ajwain seeds (optional); water; medium sized potatoes; sweet green peas; thinly sliced onions; cumin seeds; minced green chili; coriander powder'</t>
-  </si>
-  <si>
-    <t>'ripe mangoes; honey; ice; plain yogurt'</t>
-  </si>
-  <si>
-    <t>'shrimp (tiger prawn); Bamboo skewers; water; Oil; chopped cilantro; 1 lime;  Greek yogurt; finely minced garlic; Garam Masala; chili powder; lime juice; oil; salt; turmeric powder; Red coloring'</t>
-  </si>
-  <si>
-    <t>'Tandoori Chicken; butter; finely minced ginger; finely minced garlic; canned tomato paste; chili powder; Garam Masala; ketchup; teaspoon sugar; Salt; water; heavy whipped cream; cilantro leaves'</t>
-  </si>
-  <si>
-    <t>'vegetable oil; cumin seeds; large onion; ginger-garlic paste; medium sized ripe tomatoes; coriander powder; cumin powder; turmeric powder; chili powder; dry kasoori methi; heavy cream; Salt; white button mushrooms;  large green or red bell pepper; turmeric; chili powderreek yogurt or strained yogurt'</t>
-  </si>
-  <si>
-    <t>'1 tablespoon oil'</t>
-  </si>
-  <si>
-    <t>'medium cauliflower; russet potatoes; canola oil; black mustard seeds; cumin seeds; coriander seeds; onion; Jalapeno or hot green pepper; tomato; garlic; fresh ginger;  chili powder;  turmeric powder; salt; water'</t>
-  </si>
-  <si>
-    <t>'seafood curry paste; large prawns; squids; scallops; seabass fillet; 1 tomato; coconut milk; tamarind pulp; shallots; water; oil; Salt; curry leaves'</t>
-  </si>
-  <si>
-    <t>'chicken(thigh meat); ginger paste; garlic paste; red chili powder; ground black pepper; Salt; Oil; lime or lemon juice; food color (deep orange); large tomatoes; garlic paste; ginger paste; jalapeno; cinnamon; bay leaf; cloves; green cardamom; whole black pepper; ketchup; sugar; red chili powder; dried fenugreek leaves; Salt'</t>
-  </si>
-  <si>
-    <t>' oil'</t>
-  </si>
-  <si>
-    <t>'2 tablespoon butter'</t>
-  </si>
-  <si>
-    <t>'Water (1/2 cup + about ½ cup)'</t>
-  </si>
-  <si>
-    <t>'1 whole chicken; cut up into 8 pieces and skin removed onion; chopped'</t>
-  </si>
-  <si>
-    <t>'tomato paste; Salt; pepper; oil; white vinegar; red Chilly peppers; cloves; garlic; fresh ginger; paprika powder; cinnamon; cumin; dry mustard; sugar'</t>
-  </si>
-  <si>
-    <t>'skinless and boneless chicken breast; butter; garlic; jalapeno; Salt; pizza crust; Olive oil; onion; mozzarella cheese; coriander leaves or cilantro; cumin; cayenne pepper; garam masala; fresh ginger; salt; black pepper; lemon juice; plain yogurt; cinnamon; tomato sauce; plain yogurt; cumin; '</t>
-  </si>
-  <si>
-    <t>'paprika; garam masala; '</t>
-  </si>
-  <si>
-    <t>'boneless skinless chicken breast; vegetable oil; minced garlic; fresh ginger; onion; cumin seeds; green cardamom; ripe tomato; turmeric; red pepper (cayenne); salt; black pepper'</t>
-  </si>
-  <si>
-    <t>'wheat flour (or stone ground drum-wheat also known as Atta); water; salt'</t>
-  </si>
-  <si>
-    <t>'rie firm green mango; cinnamon; cloves; cumin seeds; coriander seeds; cardamom; ginger; dry red chilly; garlic; demerara suga; vinegar; water; salt'</t>
-  </si>
-  <si>
-    <t>'almonds; icing sugar; aged egg whites; caster sugar; pink food colouring powder; rose essence                                                                                                                                            '</t>
-  </si>
-  <si>
-    <t>'large onions; turmeric root; slices of lengkwas (galangal) root; stalks lemongrass; red chillies; candlenuts; tablespoon  belacan (shrimp paste); teaspoon  chopped garlic; chicken; coconut milk; water; teaspoons  salt; White pepper; sugar'</t>
-  </si>
-  <si>
-    <t>'vegetable oil; onions; screw pine leaves (daun pandan); 1 kg lean beef; coconut cream (santan pekat); water; tamarind pulp; desiccated coconut (kerisik); sugar; Salt'</t>
-  </si>
-  <si>
-    <t>'ghee; plain flour'</t>
-  </si>
-  <si>
-    <t>'Oil ; chicken; garlic powder; salt;ground turmeric ; ground nutmeg; butter'</t>
-  </si>
-  <si>
-    <t>'red onions; red bell pepper; large red chilli; honey red tomatoes; bulb garlic; stick cinnamon; fish sauce; sugar; oil'</t>
-  </si>
-  <si>
-    <t>'beancurd; chunky peanut butter; Hoisin sauce; water; vegetable oil; Salt; pepper; crabmeat; lime; cucumber; carrot'</t>
-  </si>
-  <si>
-    <t>'royal gala apples; sugar; butter; margarine; salt; castor sugar; vanilla extract; plain flour; baking powder; ground almonds; ground cinnamon; Grade A eggs; milk'</t>
-  </si>
-  <si>
-    <t>'ripe bananas; lemon juice; full cream milk; vanilla paste; baking powder; butter; sugar; eggs; flour; walnuts; chopped candied ginger; Vanilla ice-cream'</t>
-  </si>
-  <si>
-    <t>'butter; salt; sugee (polenta); fresh milk; caster sugar; Grade A eggs; orange; self-raising flour; brandy (optional); pineapple; brown sugar; cream'</t>
-  </si>
-  <si>
-    <t>'Chicken; water; Salam Leaf; Oil; cloves; Garlic; Coriander; Ginger; Galangal'</t>
-  </si>
-  <si>
-    <t>'butter; flour; mixed spice (ground cinnamon; cloves; anise and cardamon); egg yolk; egg white; caster sugar; vanilla essence'</t>
-  </si>
-  <si>
-    <t>'dried adzuki beans; coconut milk; water; ginger; brown sugar; salt'</t>
-  </si>
-  <si>
-    <t>'white tofu; prawns; minced chicken; green onion;  egg; salt; white pepper; sesame oil; cornflour'</t>
-  </si>
-  <si>
-    <t>'plain flour; caster sugar; vanilla essence; milk; egg'</t>
-  </si>
-  <si>
-    <t>'iceberg lettuce; potatoes; green beans;  bean sprouts;  Chinese cabbage;  tomatoes; red onion;  spring onions; cucumber; red chillies; eggs; tofu'</t>
-  </si>
-  <si>
-    <t>'banana peppers; shallots; garlic; salt; chilli powder; vegetable oil'</t>
-  </si>
-  <si>
-    <t>'beef; kaffir lime leaves; coriander; tamarind juice; coconut milk; palm sugar; salt'</t>
-  </si>
-  <si>
-    <t>'squid; shallots; garlic; ginger; turmeric powder'</t>
-  </si>
-  <si>
-    <t>'plain flour'</t>
-  </si>
-  <si>
-    <t>'baking soda'</t>
-  </si>
-  <si>
-    <t>'baking powder'</t>
-  </si>
-  <si>
-    <t>'egg; milk'</t>
-  </si>
-  <si>
-    <t>'light sour cream'</t>
-  </si>
-  <si>
-    <t>'mustard'</t>
-  </si>
-  <si>
-    <t>'horseradish cream'</t>
-  </si>
-  <si>
-    <t>' chives'</t>
-  </si>
-  <si>
-    <t>'black pepper'</t>
-  </si>
-  <si>
-    <t>'smoked salmon'</t>
-  </si>
-  <si>
-    <t>'unsmoked back bacon'</t>
-  </si>
-  <si>
-    <t>'portabello mushroom'</t>
-  </si>
-  <si>
-    <t>'cherry tomatoes'</t>
-  </si>
-  <si>
-    <t>'300g dried shrimps; 2 tablespoons Nonya Sambal chilly; 1 teaspoon fine sugar; 2 kaffir lime leaves'</t>
-  </si>
-  <si>
-    <t>'350g vegetarian chicken;125ml cooking oil;500g glutinous rice;15 stalks blue pea flower;5 meters hemp string;8 pandan leaves;0.5 teaspoons of salt;36 pcs dried bamboo leaves;2 tablespoons or 12g biryani powder;2 tablespoons water;2 teaspoons mushroom stock;50g brown sugar;50g winter melon'</t>
-  </si>
-  <si>
-    <t>'4 large yellow capsicums; 2 cups cooked rice; 80g French beans; 100g canned corn kernels; 1 large tomato; 4 tablespoons extra virgin olive oil; 0.5 teaspoon of salt; 0.5 teaspoon of pepper; 10g coriander; 100g shredded cheese'</t>
-  </si>
-  <si>
-    <t>'750g chicken;2 tablespoons meat curry powder;2 heaped teaspoons chilly powder;2 tablespoons cooking oil;2 potatoes;500ml water1 spring curry leaf;250ml coconut milk;1 piece tamarind peel;2 teaspoons of salt'</t>
-  </si>
-  <si>
-    <t>'500g small prawns; 4 tablespoons garlic; 1 White cabbage; 2 cups green beans; 5 stalks leeks; 2 carrots; 10 Chinese mushrooms; 2 tablespoons light soy sauce; 1 teaspoon salt; Pepper; 1 tablespoon sugar'</t>
-  </si>
-  <si>
-    <t>'175ml Cooking Oil;750ml water;75g tamarind pulp;900g Mackerel - sliced into 11/2 inch pieces;2 Kaffir Lime Leaves (optional);0.5 teaspoon Sugar;2.5 teaspoon Salt;20 young Lady Fingers / Okra'</t>
-  </si>
-  <si>
-    <t>'200g Sago Pearl;200g Gula Melaka (Palm Sugar);250ml Coconut Milk;1 Pandan Leaf (Screwpine Leaf)- shred with a fork &amp; tie into a knot;700ml  Water;0.5 teaspoons of Salt'</t>
-  </si>
-  <si>
-    <t>'1 small yam bean;1 guava;1 cucumber;1 carrot;0.5 green papaya;1 cup peeled pomelo sacs'</t>
-  </si>
-  <si>
-    <t>'4 medium-sized ikan selar or horse mackerel; 1 tablespoon tamarind paste; 1 teaspoon dried shrimp paste; 1 stalk lemongrass; 3 red chilly; 1/2 onion; 4 whole kaffir lime leaves; 1/2 teaspoon salt; 1/2 teaspoon sugar'</t>
-  </si>
-  <si>
-    <t>'20 pieces spring roll wrappers; 3 tablespoons plain flour; cooking oil'</t>
-  </si>
-  <si>
-    <t>'3 tablespoons cooking oil;3cm cinnamon stick;2 star anise;2 cloves;3 shallots;2 cloves garlic;4 tablespoons fish curry powder;125ml water;15g tamarind paste;2 tablespoons palm sugar;600g pineapple;100ml coconut milk;1 teaspoon salt'</t>
-  </si>
-  <si>
-    <t>'300g chicken;300g belly pork;6 tablespoons cooking oil;1.5 tablespoons bean paste or tau cheo;40g palm sugar;10 dried shitake mushrooms;80ml water;2 potatoes;1 teaspoon dark soya sauce;2 teaspoons salt'</t>
-  </si>
-  <si>
-    <t>'6 tablespoons cooking oil;3 shallots;2 cloves garlic;2 shallots;1 tablespoon soya bean paste;150g prawns;100g chicken meat;400g fresh yellow egg noodles;3 stalks mustard green “choy sum”;1 cup bean sprouts;0.5 cup water;0.5 teaspoon dark soya sauce;1 tablespoon light soya sauce;2 teaspoons sugar;0.25 teaspoon ground white pepper;0.5 teaspoon of Salt'</t>
-  </si>
-  <si>
-    <t>'100 ml cooking oil; 1 big onion; 700 g chicken; 1/2 tablespoon brown sugar; 3 pieces kaffir lime leaves; 125 ml water; 125 ml thick coconut milk; 1 tablespoon lime juice; Salt'</t>
-  </si>
-  <si>
-    <t>'2kg glutinous rice;300g dried prawns;500g lean pork;100g candied winter melon;4 stalks lemon grass;5cm knob galangal;50g dried chilly;5 cloves garlic;10 shallots;3 tablespoons coriander seeds,;100 g sugar;5 Blue pea flowers;3 bundles large pandan leaves'</t>
-  </si>
-  <si>
-    <t>'2 pieces hard tofu (tau kwa);100g sweet corn kernels;1 red bell pepper;8 snow pea pods'</t>
-  </si>
-  <si>
-    <t>'500g round cabbage ;100g pork belly;10g dried black fungus;5g dried lily buds;10g sweet dried bean curd;20g dried tang hoon;10g dried mushrooms;10g dried prawns;3 cloves fresh garlic;10g tau cheoh paste;1 tablespoon dark soya sauce;5 tablespoons cooking oil;1 teaspoon chicken seasoning powder'</t>
-  </si>
-  <si>
-    <t>'16 pieces chicken drummets;2 tablespoons ginger juice;1 tablespoon corn flour;1 tablespoon chilly flakes;1 tablespoon oyster sauce;1 teaspoon chicken stock granules;0.25 teaspoon dark soya sauce;10 kaffir lime leaves;2 tablespoons honey;1 tablespoon salt'</t>
-  </si>
-  <si>
-    <t>'4kg turkey;1 medium-sized onion;1 stalk carrot;1 stick celery;1 small bunch Thai sweet basil;1 small bunch kaffir lime leaves;1 small bunch laksa leaves;1 teaspoon salt;1 tablespoon dried shrimp paste;0.75 cup vegetable or olive oil;2 teaspoons of Pepper;1 spring kaffir lime leaves;1 tablespoon corn flour;1 cup white wine'</t>
-  </si>
-  <si>
-    <t>'300g sweet potato flesh; 150g coarse sugar; 100ml water; 150g tapioca flour; 250ml thick coconut milk; 0.5 teaspoon of salt; 100g grated coconut flesh'</t>
-  </si>
-  <si>
-    <t>'500g glutinous rice;1 tablespoon freshly ground turmeric;1 pc tamarind peel;1 teaspoon pepper corns;0.5  teaspoon of salt;32 pcs dried bamboo leaves;5 meters hemp string'</t>
-  </si>
-  <si>
-    <t>'0.5kg pork belly;3 heaped tablespoons tamarind paste;1 cup water;1 tablespoon salt;2 teaspoons sugar'</t>
-  </si>
-  <si>
-    <t>'1 skinless chicken breast;2 chicken drumsticks;2 cups rice;2 tablespoons oil;5cm piece of ginger;1 stalk scallion;6 shiitake mushrooms;CHICKEN MARINADE;2 tablespoons oyster sauce;1 tablespoon soy sauce;0.5 teaspoon corn starch;0.5 teaspoon sesame oil;3 dashes white pepper;0.25 teaspoon sugar;1 tablespoon Shaoxing wine'</t>
-  </si>
-  <si>
-    <t>'2 tablespoons cooking oil;3 litres water;700g pork ribs;2 teaspoon salt;600g yellow noodles;200g dried vermicelli'</t>
-  </si>
-  <si>
-    <t>'1 tablespoon black pepper;4 tablespoons melted unsalted butter;3 cloves garlic;1/8 small onion;1 kilo crab;1 tablespoon oyster sauce;1/2 tablespoon sugar ;2 tablespoons water;Salt'</t>
-  </si>
-  <si>
-    <t>'500g pork mince;1 large onion;2 potatoes;250g frozen peas;1 teaspoon dark soya sauce;1 teaspoon salt;1 small stick of cinnamon;3 cloves;1 dash of pepper;2 teaspoons vegetable oil'</t>
-  </si>
-  <si>
-    <t>'0.5 litres water;400g chicken meat or spare ribs;1 piece dried squid;1 tablespoon chicken stock granules;8 red dates;0.25 teaspoon pepper;1 carrot;350g lotus roots;0.5 teaspoon of Salt'</t>
-  </si>
-  <si>
-    <t>'1 kg clams;1 onion;4 cloves garlic;2 tablespoons vegetable oil;0.5 cup Chinese rice wine;5 slices ginger;2 chilies;0.5 tablespoon sesame oil;1 spring spring onion;1 tablespoon light soya sauce'</t>
-  </si>
-  <si>
-    <t>'8 large prawns;3 tablespoons butter;0.5 teaspoon of Salt;0.5 teaspoon of pepper'</t>
-  </si>
-  <si>
-    <t>'500g fish fillet;500g fish bones;3 ginger;1 tablespoon Tianjin preserved vegetables;1 teaspoon of Dried seaweed;1 tablespoon light soy sauce;0.5 tablespoon sesame oil;1 teaspoon rice wine;1 teaspoon of Pepper;2 tablespoons hua tiao wine;2 litres water;2 slices ginger;2 stalks spring onions;2 stalks coriander;2 cups cooked rice'</t>
-  </si>
-  <si>
-    <t>'400 g cod fillet;0.5 teaspoon of salt;0.5 teaspoon of white pepper;1 big tomato;1 piece sour plum;200g silken tofu;4 slices of ginger;2 tablespoons cooking oil;2 cloves garlic;40g pork;100g preserved mustard'</t>
-  </si>
-  <si>
-    <t>'1kg white glutinous rice;80g Chinese dried mushrooms;200g Chinese sausages;20 g dried prawns;100g shallots;10 g peanuts;0.5 teaspoon of Salt;2 teaspoon of light soya sauce;2 teaspoon of dark soya sauce;2 spring onions'</t>
-  </si>
-  <si>
-    <t>'1 teaspoon of light soya sauce;1 teaspoon of dark soya sauce'</t>
-  </si>
-  <si>
-    <t>'2kg glutinous rice;500g pork hock with skin;100g lean pork;30 small dried shiitake mushrooms;30 dried Chinese chestnuts;10 cloves garlic,;2 teaspoon of Soy sauce;5 spice powder;0.5 teaspoon of salt;0.5 teaspoon of pepper;20 salted egg yolks;3 bundles bamboo leaves'</t>
-  </si>
-  <si>
-    <t>'2 pieces golden snapper fish or ikan jenahak;125ml cooking oil;6 shallots;6 cloves garlic;50g tamarind pulp;10g red chilli padi;2 tablespoons sugar;1 teaspoon salt'</t>
-  </si>
-  <si>
-    <t>'1 large snapper or pomfret;1 packet salted vegetables (kiamchye);3 pickled plums;1 teaspoon corn flour;2 large tomatoes;1 red chili;2 Coriander;5 teaspoon of Sesame oil'</t>
-  </si>
-  <si>
-    <t>'300g dried egg noodles ;2 eggs;100g dried shrimps;8 dried shiitake mushrooms;1 teaspoon sugar;1 tablespoon soy sauce;3 tablespoons oyster sauce;3 stalks spring onions;1 spring of coriander;500ml of Water;0.5 teaspoon of Salt;0.5 teaspoon of pepper;5 teaspoon of cooking Oil'</t>
-  </si>
-  <si>
-    <t>'4 chicken eggs;500ml water;125ml fresh milk;1 teaspoon chicken stock granules;0.5 teaspoon ground pepper;2 century eggs;1 salted egg yolk;2 crabsticks;1 tablespoons chopped spring onions;1 teaspoon sesame oil;0.5 teaspoon salt'</t>
-  </si>
-  <si>
-    <t>'60g butter;2 tablespoons cooking oil;3 shallots;6 birds eye chillies;3 sprigs curry leaves;3 salted egg yolks;150ml evaporated milk;3 tablespoons water;500g fresh medium sized prawns;0.5 teaspoon sugar;0.5 teaspoon salt'</t>
-  </si>
-  <si>
-    <t>'2 cloves garlic;5g ginger;10g onions;30g pork belly;2 prawns;5 pieces clams;50g cabbage;6 pieces celery;10g carrots;5g Chinese chives;1 piece Chinese mushrooms;150g wheat flour noodles;100ml of Chicken stock ;600ml Hua Tiao wine ;0.25 teaspoon salt;0.25 teaspoon Chicken powder ;0.25 teaspoon oyster sauce;0.25 teaspoon sugar;15g peanuts ;10g seaweed;3 Spring onions;0.25 teaspoon of white pepper powder '</t>
-  </si>
-  <si>
-    <t>'1 pound beef top sirloin steak ;0.25 cup soy sauce ;2 tablespoons white sugar ;2 tablespoons cornstarch ;0.5 teaspoon ground ginger ;3 tablespoons vegetable oil;1 divided red onion;1 green bell pepper (cut into 1-inch squares);2 tomatoes (cut into 1-inch squares, cut into wedges)'</t>
-  </si>
-  <si>
-    <t>'1 cup confectioners sugar ;3 cups all-purpose flour ;1 cup butter ;1 egg beaten 1 dash vanilla ;0.7 cup white sugar ;100ml water ;9 eggs;1 beaten dash vanilla;1 cup evaporated milk'</t>
-  </si>
-  <si>
-    <t>'0.5 chicken;2 potatoes;0.5 cup oil;60g chicken curry powder;2 onions;2 lemon grass;2 cups water;0.5 cup coconut milk;0.5 cup evaporated milk;4 teaspoons salt;0.5 teaspoon sugar;5 curry leaves;5 cloves garlic;10 cloves shallot;3 stalks lemon grass'</t>
-  </si>
-  <si>
-    <t>'2 chicken whole legs;2 potatoes;5 teaspoon of Cooking oil;375ml water;12 ml thick coconut milk;2 whole tomatoes;1 teaspoon salt;1 teaspoon sugar;1 cinnamon stick;3 cloves;3 cardamons;1 bay leaf;1 big onion;2 green chillies;12g young ginger;20g green chillies;60g shallots;3 cloves garlic;6 cashew nuts;0.5 tablespoon coriander seeds;0.5 teaspoon fennel;0.5 tablespoon cumin;0.5 teaspoon turmeric powder;0.5 teaspoon peppercorns;1 sprig coriander leaves;1 tablespoon shallot crisps'</t>
-  </si>
-  <si>
-    <t>'0.5 cups basmati rice;4 pieces cardamom;5 cloves;1 cinnamon stick;1 good pinch saffron strands;1 cup water;1 teaspoon salt;4 boneless chicken leg;4 heaped tablespoons Indian yoghurt;1 teaspoon smoked paprika;1 tablespoon grated ginger;1 teaspoon cracked black pepper;1 teaspoon turmeric powder;1 tablespoon cumin powder;1 teaspoon sea salt'</t>
-  </si>
-  <si>
-    <t>'1 teaspoon sugar;0.75 cup warm water;0.25 oz active dry yeast;2 cups all-purpose flour;0.5 cup plain yogurt;1 tablespoon oil;5 teaspoon of Some oil, for greasing the skillet;3 tablespoons melted salted butter'</t>
-  </si>
-  <si>
-    <t>'1 lb chicken legs;5 teaspoon of Oil, for basting;1 lime, cut into wedges;0.5 cup Greek yogurt;1 teaspoon finely minced ginger;1 teaspoon finely minced garlic;0.5 teaspoon Garam Masala;0.25 teaspoon cayenne pepper;2 tablespoons lime juice;1 tablespoons oil;0.5 teaspoons salt or to taste;0.25 teaspoon turmeric powder;2g Red coloring, optional'</t>
-  </si>
-  <si>
-    <t>'580g All purpose flour ;1.5 teaspoon Kosher salt;1 teaspoon Granulated sugar;0.75 cup Ghee, room temperature ;1 large Egg, beaten;0.75 cup Whole milk;0.5 cup Water'</t>
-  </si>
-  <si>
-    <t>'0.5 cup of all-purpose flour (if you are familiar with Indian wheat flour or durum aata you can use that as well);2 teaspoon semolina (cream of wheat);2 teaspoon oil;1 teaspoon salt;0.5 ajwain seeds (optional);0.7 cups of water;2 medium sized potatoes (I use Yukon gold);0.5 cup sweet green peas;1 cup thinly sliced onions;1 teaspoon cumin seeds;1 teaspoon minced green chilly;0.5 teaspoon coriander powder (optional)'</t>
-  </si>
-  <si>
-    <t>'2 ripe mangoes, peeled and diced, about 1 lb.;5 tablespoons honey or agave nectar, or to taste;1 cup ice;1 heaping cup plain yogurt'</t>
-  </si>
-  <si>
-    <t>'1 lb shrimp, tiger prawn preferred, shelled and deveined, tails on Bamboo skewers, soaked in water before using Oil, for basting;0.5 tablespoon chopped cilantro;1 lime, cut into wedges;0.3 cup Greek yogurt;1 teaspoon finely minced garlic;0.5 teaspoon Garam Masala;0.25 teaspoon chili powder;2 tablespoons lime juice;1 tablespoons oil;0.5 teaspoons salt or to taste;0.25 teaspoon turmeric powder;5g Red coloring, optional'</t>
-  </si>
-  <si>
-    <t>'1 lb Tandoori Chicken;4 tablespoons butter;1 teaspoon finely minced ginger;2 teaspoons finely minced garlic;120ml canned tomato paste;2 tablespoons chili powder;0.5 teaspoon Garam Masala;2 tablespoons ketchup;0.5 teaspoon sugar;0.5 teaspoon of Salt, to taste;120ml water;4 tablespoons heavy whipping cream;2 sprigs cilantro, leaves only, roughly chopped'</t>
-  </si>
-  <si>
-    <t>'2 tablespoons vegetable oil;0.75 teaspoon cumin seeds;1 large onion, minced;2 teaspoons ginger-garlic paste;3 medium sized ripe tomatoes, pureed;0.5 teaspoon coriander powder;0.5 teaspoon cumin powder;0.25 teaspoon turmeric powder;0.25 teaspoon chili powder or according to taste;2 tablespoons dry kasoori methi;2 tablespoons heavy cream, optional;0.5 teaspoon of Salt;15 fresh white button mushrooms;1 large green or red bell pepper, cubed;0.25 teaspoon turmeric;0.25 teaspoon chili powder, or to taste;0.25 cup whole Greek yogurt or strained yogurt;1 tablespoon oil'</t>
-  </si>
-  <si>
-    <t>'1 medium cauliflower, cut into florets;2 large russet potatoes, cubed;4 tablespoons canola oil;0.5 teaspoon black mustard seeds (or regular if cannot find black);0.5 teaspoon cumin seeds;0.5 teaspoon coriander seeds, crushed in a mortar and pestle;1 medium onion, diced;1 Jalapeno or any hot green pepper, sliced (can use seeded or 1/2 seeded to tone down heat);1 medium tomato, diced;4 garlic cloves, minced;1 small piece of fresh ginger (thin 1 inch), grated on small hole grater or ginger grater;0.5 teaspoon red pepper chili powder;0.5 teaspoon turmeric powder;0.5 teaspoon salt or according to taste;8 tablespoons of water'</t>
-  </si>
-  <si>
-    <t>'1 pack seafood curry paste;6 large prawns;6 squids;6 scallops;0.5 lb. seabass fillet (cut into small cubes/pieces);1 tomato (cut into wedges);2 tablespoons coconut milk;1 tablespoon tamarind pulp (soaked in 4 tablespoons water and extract the juice);2 shallots (peeled and sliced);0.5 cups water;1 tablespoon oil;0.5 teaspoon of Salt to taste;1 sprig curry leaves (optional)'</t>
-  </si>
-  <si>
-    <t>'2 lbs chicken (preferably thigh meat, boneless and skinless, cut into 2-3 inch pieces);2 teaspoons ginger paste;0.5 tablespoons garlic paste;1 teaspoons red chilly powder;0.5 teaspoon ground black pepper;0.5 teaspoon of Salt as per taste;3 tablespoon cooking oil;2 teaspoons lime/lemon juice;2 pinches of food color (deep orange, totally optional);4 large tomatoes, quartered;0.5 tablespoons garlic paste;2 teaspoons ginger paste;1 jalapeno;1 2-inch cinnamon piece;1 bay leaf;4 cloves;2 green cardamom;6 whole black pepper;2 tablespoons ketchup;2 teaspoon sugar;0.5 teaspoon red chili powder;0.5 teaspoon dried fenugreek leaves;0.5 teaspoon of Salt as per taste;2 tablespoons cooking oil;2 tablespoon butter;0.5 cup water'</t>
-  </si>
-  <si>
-    <t>'1 whole chicken, cut up into 8 pieces and skin removed onion, chopped;1 tablespoon tomato paste;0.5 teaspoon of Salt as per taste;0.5 teaspoon of pepper as per taste;3 tablespoons oil;0.5 cup vinegar (white);4 dried red Chile peppers (you can use any moderately hot Chile and adjust the quantity as per you liking);4 cloves;8 garlic cloves, skin removed;1 2inch piece fresh ginger, peeled;1 teaspoon paprika powder;0.25 teaspoon ground cinnamon;0.5 teaspoon ground cumin;0.5 teaspoon dry mustard;1 teaspoon sugar'</t>
-  </si>
-  <si>
-    <t>'10 oz skinless and boneless chicken breast, cut into 1/2-inch cubes;1 tablespoon butter;2 cloves garlic, minced;1/2 jalapeno, deseeded;0.5 teaspoon of Salt to taste;1 12-inches store-bought pizza crust or three (3) 7-inches mini pizza crusts;1 teaspoon of Olive oil for brushing;0.25 onion, thinly sliced;1 cup mozzarella cheese;2 sprig of coriander leaves/cilantro, chopped, save some for garnish;0.5 teaspoon ground cumin;0.5 teaspoon ground cayenne pepper;0.5 teaspoon ground garam masala;0.5 teaspoon minced fresh ginger;0.25 teaspoon salt;0.25 teaspoon ground black pepper;1 tablespoon lemon juice;2 tablespoons plain yogurt;0.5 teasponn of cinnamon;4oz tomato sauce;2 tablespoons plain yogurt;2 tablespoons heavy cream;0.5 teaspoon cumin;0.5 teaspoon paprika;0.5 teaspoon garam masala'</t>
-  </si>
-  <si>
-    <t>'600g boneless, skinless chicken breast;4 tablespoons vegetable oil;1 tablespoon minced garlic;1 teaspoon peeled and finely grated fresh ginger;1 onion, grated on the largest grating holes on a box grater or shredded in a food processor;0.75 teaspoon cumin seeds;4 whole green cardamom pods;1 large fully ripe tomato, cut into 4 pieces;0.25 heaping teaspoon ground turmeric;0.75 teaspoon ground red pepper (cayenne);0.75 teaspoon salt;0.75 teaspoon ground black pepper'</t>
-  </si>
-  <si>
-    <t>'2 cups whole wheat flour (or stone ground drum-wheat also known as “Atta”);1 cup water (approximately);1 teaspoon salt;2g flour in a shallow plate or pie dish to help with coating and dusting while rolling the chapattis'</t>
-  </si>
-  <si>
-    <t>'500g ripe but firm green mango;1 sticks cinnamon (about 2 inch);2 whole cloves;1 teaspoon cumin seeds;1 teaspoon coriander seeds;2 cardamom pods, cracked;1 teaspoon ginger, grated;3 whole dry red chilly;1 clove garlic, crushed;0.75 cup demerara sugar;0.5 cup vinegar;0.75 cup water;1 teaspoon salt'</t>
-  </si>
-  <si>
-    <t>'60 g almonds;100 g icing sugar;50 g aged egg whites;20 g caster sugar;0.5 teaspoon of pink food colouring powder;0.5 teaspoon of rose essence'</t>
-  </si>
-  <si>
-    <t>'2  large onions;1  turmeric root;4  slices of lengkwas (galangal) root;2  stalks lemongrass;4  red chilly;5  candlenuts;1 tablespoon  belacan (shrimp paste);1 teaspoon  chopped garlic;0.5 kg chicken;1 cup coconut milk;1 cup water;2 teaspoons  salt ;0.5 teaspoon of White pepper;1 teaspoon  sugar'</t>
-  </si>
-  <si>
-    <t>'0.5 cup vegetable oil;2  onions;3  screw pine leaves (daun pandan);1 kg lean beef;3 cups coconut cream (santan pekat);2 tablespoons  tamarind pulp;0.5 cup desiccated coconut (kerisik);1 tablespoon sugar;0.5 teaspoon of Salt'</t>
-  </si>
-  <si>
-    <t>'4 tablespoons ghee;13 cm Brass moulds'</t>
-  </si>
-  <si>
-    <t>'1 teaspoon of Oil ;1  fresh chicken;3 tablespoons  garlic powder ;2 teaspoon  salt ;1 teaspoon  ground turmeric ;1 teaspoon  ground nutmeg;12 tablespoons  butter'</t>
-  </si>
-  <si>
-    <t>'3  large red onions;1  red bell pepper;10  large red chilli;200 g honey red tomatoes;1  bulb garlic;1  stick cinnamon;1 tablespoon fish sauce;4 tablespoons sugar;1 cup oil'</t>
-  </si>
-  <si>
-    <t>'1  firm beancurd;2 heaped tablespoons chunky peanut butter;2 heaped tablespoons  Hoisin sauce;3 tablespoons water;3 tablespoons vegetable oil;0.5 teaspoon of Salt;0.5 teaspoon of pepper;150 g tinned crabmeat;0.5  lime;1  cucumber;0.5  carrot'</t>
-  </si>
-  <si>
-    <t>'5  royal gala apples;150 g sugar ;220 g butter;80 g margarine;0.25 teaspoon  salt;250 g castor sugar;0.5 teaspoon  vanilla extract;300 g plain flour;1 tablespoon  baking powder;75 g ground almonds;1 teaspoon  ground cinnamon;5  Grade A eggs;80 ml milk;10 round bundt pan'</t>
-  </si>
-  <si>
-    <t>'6  sweet ripe bananas;2 tablespoons lemon juice;0.25 cup full cream milk;1 teaspoon vanilla paste;2 teaspoons baking powder;200 g butter;0.5 teaspoon of sugar;3  eggs;1 cup flour;0.5 cup walnuts;0.25 cup chopped candied ginger;100ml of Vanilla ice-cream'</t>
-  </si>
-  <si>
-    <t>'250 g good quality butter;0.25 teaspoon salt;90 g sugee/ polenta;150 ml fresh milk ;220 g caster sugar;3  Grade A eggs;1  orange;375 g self-raising flour;1 tablespoons  brandy (optional);1  pineapple;20g Extra butter;50 g brown sugar to sprinkle;1 bottle of cream for serving'</t>
-  </si>
-  <si>
-    <t>'4 piece Chicken;300ml water;2 piece Salam Leaf;5 teaspoon of Oil to fry;5 cloves Garlic;0.5 teaspoon Coriander;3 cm Ginger;3 cm Galangal'</t>
-  </si>
-  <si>
-    <t>'455 g butter;115 g flour;1 teaspoon mixed spice (ground cinnamon, cloves, anise and cardamon);17 egg yolks;5 egg whites;255 g caster sugar;2 teaspoons vanilla essence'</t>
-  </si>
-  <si>
-    <t>'150 g dried adzuki beans;1.5 can coconut milk;300 ml water;1 cm sliced ginger;130 g brown sugar , to taste;0.5 teaspoon of salt'</t>
-  </si>
-  <si>
-    <t>'4 firm white tofu squares;60 g prawns, peeled, deveined and minced;40 g minced chicken;1 green onion, chopped;1 egg, lightly beaten;0.5 teaspoon of salt to taste;0.5 teaspoon of white pepper to taste;1 teaspoon sesame oil;2 teaspoon cornflour;1 teaspoon of oil for frying'</t>
-  </si>
-  <si>
-    <t>'155g plain flour;2 tablespoons caster sugar;0.5 teaspoon vanilla essence;125ml milk;1 egg'</t>
-  </si>
-  <si>
-    <t>'1 small head iceberg lettuce, leaves separated;2 large potatoes, boiled and sliced;200g green beans, sliced, blanched;0.75 cup bean sprouts, blanched;0.5 cups shredded Chinese cabbage, blanched;2 medium tomatoes, cut into wedges;1 medium red onion, sliced;3 spring onions, cut in short lengths;1 cucumber, thinly sliced;2 fresh red chilly, seeded and thinly sliced;4 medium hard–boiled eggs, sliced;125g fried tofu, cut into cubes'</t>
-  </si>
-  <si>
-    <t>'4 fresh banana peppers, seeded and chopped;4 shallots, chopped;5 cloves garlic, chopped;2 tablespoon salt;1 teaspoon chilli powder;1 tablespoon vegetable oil'</t>
-  </si>
-  <si>
-    <t>'500 g lean beef, cut into long chunks;2 kaffir lime leaves;1 tablespoon ground coriander;120 ml tamarind juice;250 ml coconut milk;1 tablespoon palm sugar;0.5 teaspoon of salt to taste'</t>
-  </si>
-  <si>
-    <t>'300 g cleaned squid, scored;2 shallots;1 clove garlic;1.5 cm ginger;1 teaspoon turmeric powder'</t>
-  </si>
-  <si>
-    <t>'200g smoked salmon, slices'</t>
-  </si>
-  <si>
-    <t>'4 rashers good-quality lean unsmoked back bacon;2 slices granary or wholegrain bread, cut on the diagonal;2 good-quality free-range pork sausage, minimum 86% pork;2 free-range, omega-3 rich egg'</t>
-  </si>
-  <si>
-    <t>'2 large free range eggs'</t>
-  </si>
-  <si>
-    <t>'200g self-raising flour;1 teaspoon baking powder;1 egg;300ml milk;50g of butter'</t>
-  </si>
-  <si>
-    <t>'2 slices white bread;1 large egg;5 slices smoked salmon'</t>
-  </si>
-  <si>
-    <t>'600g medium-sized potatoes;2 beef steaks (200g each)'</t>
-  </si>
-  <si>
-    <t>'1kg beef fillet - ask your butcher to cut it from the middle of the fillet and say you do not want the tail end or the head (chateaubriand) of the fillet;20g dried porcini mushrooms;400g chestnut or button mushroom, roughly sliced;1 beef stock cube'</t>
-  </si>
-  <si>
-    <t>'6 boneless skinless chicken breasts;cooked rice'</t>
-  </si>
-  <si>
-    <t>'5 slices of salmon fillet'</t>
-  </si>
-  <si>
-    <t>'6 pounds baby back pork ribs'</t>
-  </si>
-  <si>
-    <t>'6 bone-in pork shoulder chops, each 1/4- to 1/2-inch thick'</t>
-  </si>
-  <si>
-    <t>'1 pound ground dark-meat turkey'</t>
-  </si>
-  <si>
-    <t>'1 pounds manila or littleneck clams'</t>
-  </si>
-  <si>
-    <t>'1 teaspoons fresh thyme leaves;1 medium zucchini, small dice;1 medium yellow squash or golden zucchini, small dice;1 small eggplant, small dice;2 tablespoons fresh basil leaves, torn in small pieces'</t>
-  </si>
-  <si>
-    <t>'7 ounce skinless salmon fillets'</t>
-  </si>
-  <si>
-    <t>'12 ounce salmon fillet, cut into 4 pieces'</t>
-  </si>
-  <si>
-    <t>'4 ounces uncooked rotini pasta'</t>
-  </si>
-  <si>
-    <t>'1 pound fully cooked sweet Italian sausage, sliced into 1/2-inch rounds'</t>
-  </si>
-  <si>
-    <t>'4 cups uncooked elbow macaroni;2 stalks celery, chopped ;1 green bell pepper, seeded and chopped '</t>
-  </si>
-  <si>
-    <t>'16 ounce package shredded coleslaw mix'</t>
-  </si>
-  <si>
-    <t>'15 stalks dried chilly;45g 2 stalks of fresh lemongrass;15g fresh blue ginger;15g fresh turmeric'</t>
-  </si>
-  <si>
-    <t>'2 stalks lemon grass;1.5cm cinnamon stick;1 star anise;2 cardamons;3 shallots;1 clove garlic;5g young ginger'</t>
-  </si>
-  <si>
-    <t>'1kg Popiah skins; 5 heads Chinese lettuce; 4 Chinese sausages; 6 eggs; 2 cucumbers; 500g bean sprouts; 5 bunches fresh coriander; 100g Fried garlic; 1 cup roasted peanuts; 0.5 teaspoon of sweet black soy sauce; 0.5 teaspoon of Fresh garlic paste; 20 red chilly'</t>
-  </si>
-  <si>
-    <t>'20 Dried chilly - soaked in water and drained;18 Shallots - peeled;2 cloves Garlic - peeled;5 Candlenuts (Buah Keras);0.5 inch Fresh Turmeric (Kunyit) - peeled;1 inch Galangal (Lengkuas) - peeled;4 stalks Lemongrass - sliced;1.5 teaspoon belachan'</t>
-  </si>
-  <si>
-    <t>'80g rice flour; 80g tapioca flour; 1 egg; 300ml water; 1 teaspoon salt; 1 teaspoon sugar; 200g small prawns'</t>
-  </si>
-  <si>
-    <t>'1 lime'</t>
-  </si>
-  <si>
-    <t>'2 tablespoons cooking oil ; 2 springs curry Leaves ; 1 teaspoon mustard seeds ; 1/4 teaspoon cumin ; 1 clove garlic; 1 big onion; 3 tablespoons fish curry powder; 350 g pumpkin; 80 ml water; 50 g green peas; 2 tablespoons coconut milk ; 1 teaspoon sugar ; 1 teaspoon salt'</t>
-  </si>
-  <si>
-    <t>'20 shallots;3 cloves garlic'</t>
-  </si>
-  <si>
-    <t>'8 stalks fresh red chilly;3 stalks red chilly padi;40g toasted belachan'</t>
-  </si>
-  <si>
-    <t>'150g shallots;1 clove garlic;10g young ginger;10g galangal;10g turmeric;2 candle nuts;2 stalks lemon grass;5 stalks dried chilly;5 stalks bird’s eye chilly;10g toasted belachan'</t>
-  </si>
-  <si>
-    <t>'1 tablespoon chilly paste;4 shallots;2 cloves garlic;1 tablespoon honey;1 teaspoon salt'</t>
-  </si>
-  <si>
-    <t>'118ml cooking oil;35 stalks dried chilly;320 g shallots;4 tablespoons sugar ;1 teaspoon salt;250g dried prawns'</t>
-  </si>
-  <si>
-    <t>'RICE SEASONINGS;2 tablespoons soy sauce;0.5 tablespoon dark soy sauce;2 teaspoons cooking oil;0.5 teaspoon of salt'</t>
-  </si>
-  <si>
-    <t>'FOR THE SPICE PASTE:;10 dried chillies;10 shallots;2 cloves garlic;500g prawn heads and shells;20g rock sugar;CHILLI PASTE:;15 dried chillies;5 red fresh chillies;5 shallots;0.25 teaspoon salt;1 teaspoon sugar'</t>
-  </si>
-  <si>
-    <t>'TOPPING:;8 tablespoons nestum;1 handful curry leaves;2 chilly padi;1 teaspoon salt;1 tablespoon sugar;80 g salted butter'</t>
-  </si>
-  <si>
-    <t>'FOR THE SAUCE:;4 tablespoons water;1 tablespoon soy sauce;0.5 tablespoons Shaoxing wine;0.5 teaspoon of sugar'</t>
-  </si>
-  <si>
-    <t>'GARNISHING:;Garlic crisps;cooking oil'</t>
-  </si>
-  <si>
-    <t>'50 g caster sugar;50 ml water;2  egg yolks  ;125 g butter;2 tablespoons canned lychee'</t>
-  </si>
-  <si>
-    <t>'5 Fresh kaffir lime leaves;5 Fried shallots;5g  Fried garlic'</t>
-  </si>
-  <si>
-    <t>'2  star anise;3  cardamom pods;3  cloves;1  cinnamon Stick'</t>
-  </si>
-  <si>
-    <t>'180 g plain flour;220 g castor sugar;0.25 teaspoon salt;5  eggs;500 ml coconut milk;60 ml pandan juice;0.25 teaspoon pandan colouring'</t>
-  </si>
-  <si>
-    <t>'3 cloves Shallots;0.5 tomato;1 teaspoon shrimp paste;2 teaspoon salt;1 bunch Lemon Basil (kemangi);2 keylime;11 piece red chili'</t>
-  </si>
-  <si>
-    <t>'For the batter;50 g plain flour;1 egg;100ml of water'</t>
-  </si>
-  <si>
-    <t>'40g butter, melted;1 teaspoon rum or imitation rum essence;4 ripe bananas, sliced;500ml (2 cups) oil for frying'</t>
-  </si>
-  <si>
-    <t>'For the peanut sauce;1/2 cup of vegetable oil;1 1/4 cups raw unsalted peanuts;2 garlic cloves;4 spring onions, chopped;salt;1/2 teaspoon chilli powder;1 teaspoon soft brown sugar;1 tablespoon dark soy sauce;2 cups water;juice of 1 lemon'</t>
-  </si>
-  <si>
-    <t>'1 kg beef tenderloin, cut into 5 x 2.5 cm cubes;2 cm galangal, thinly sliced;3 stalks lemongrass, chopped;6 lime leaves;1 teaspoon ground turmeric;3 cans coconut milk'</t>
-  </si>
-  <si>
-    <t>'Spice blend;8 shallots;3 cloves garlic;1 cm ginger;2 cm galangal;6 dried chillies (deseeded and soaked in warm water to soften);1 lemongrass bulb, roughly chopped'</t>
-  </si>
-  <si>
-    <t>'1 pinch brown sugar;0.5 teaspoon of salt to taste;0.5 teaspoon of pepper to taste;2 tablespoon lime juice;4 tablespoon kecap manis (dark sweet soy sauce);2 tablespoon cooking oil'</t>
-  </si>
-  <si>
-    <t>'0.5 cups plain flour;2 teaspoons baking soda;2 teaspoons baking powder;1 egg;1 cup low-fat milk;0.5 cup light sour cream;1 teaspoon mustard;1 teaspoon horseradish cream'</t>
-  </si>
-  <si>
-    <t>'4 brown-cap portabello mushroom;16 cherry tomatoes on the vine, room temperature;3.5 oz glasses freshly-squeezed orange juice;1 orange cut into wedges;50g of fresh blueberries'</t>
-  </si>
-  <si>
-    <t>'6 teaspoon single cream or full cream milk;5g of butter'</t>
-  </si>
-  <si>
-    <t>'150g pack blueberry;20ml of golden or maple syrup'</t>
-  </si>
-  <si>
-    <t>'0.5 ripe avocado;0.5 lemon;5 pieces of watercress'</t>
-  </si>
-  <si>
-    <t>'10 parsley leaves, finely chopped;5ml of squeeze lemon juice'</t>
-  </si>
-  <si>
-    <t>'6 thin slices prosciutto;5g of plain flour, for dusting;500g pack all-butter puff pastry;1 egg;1 teaspoon fresh thyme leaf;75g butter;2 large shallot;2 tbsp freshly grated Parmesan;spring of thyme;1 bay leaf;1 teaspoon plain flour'</t>
-  </si>
-  <si>
-    <t>'0.25 cup Real Lemon juice;8 ounces fresh sliced mushrooms'</t>
-  </si>
-  <si>
-    <t>'1 teaspoon ground ginger;1 teaspoon garlic powder;0.3 cup reduced sodium soy sauce;0.3 cup orange juice;0.25 cup honey;1 green onion, chopped'</t>
-  </si>
-  <si>
-    <t>'0.5 cups ketchup;3 tablespoons kosher salt;2 tablespoons chili powder;2 tablespoons packed dark brown sugar;2 tablespoons paprika;1 tablespoon garlic powder;2 teaspoons ground mustard;1 teaspoon freshly ground black pepper;2 full racks baby back pork ribs (about 5 to 6 pounds);0.5 cup water;0.3 cup packed dark brown sugar;0.25 cup light or dark molasses (not blackstrap);2 tablespoons cider vinegar;2 tablespoons Worcestershire sauce;1 tablespoon chili powder;2 teaspoons garlic powder;2 teaspoons paprika'</t>
-  </si>
-  <si>
-    <t>'1 large egg'</t>
-  </si>
-  <si>
-    <t>'0.5 teaspoon dried oregano;0.5 teaspoon fennel seeds;0.25 teaspoon red pepper flakes;0.25 cup ricotta cheese;1 large egg, lightly beaten;2 tablespoons finely chopped flat-leaf parsley;28-ounce can crushed tomatoes;1 slice of Freshly grated Parmesan cheese'</t>
-  </si>
-  <si>
-    <t>'1 pint cherry tomatoes;1 pound linguine;4 anchovy fillets, chopped;0.25 cup finely chopped Italian parsley'</t>
-  </si>
-  <si>
-    <t>'1 pound dried pasta, such as penne, cavatelli, or garganelli;0.5 a lemon (Finely grated zest and juice);1 cup crumbled feta cheese'</t>
-  </si>
-  <si>
-    <t>'0.25 cup vegetable oil;2 cloves garlic, sliced;3 cups seeded, julienned hothouse cucumbers, soaked in cold water to crisp; drained;0.3 cup chopped Asian basil;3 tablespoons chopped, roasted peanuts;1 teaspoon finely chopped garlic;3 Thai bird chiles or 1 serrano chile, chopped;3 tablespoons sugar;3 tablespoons minced ginger;3 tablespoons fish sauce;3 tablespoons lime juice;3 tablespoons water'</t>
-  </si>
-  <si>
-    <t>'5g of Toasted Almond Parsley Salsa, for serving;5g of Baked squash, for serving, optional'</t>
-  </si>
-  <si>
-    <t>'2 cucumbers, chopped;10 cherry tomatoes, quartered;0.75 cup pitted black olives, sliced'</t>
-  </si>
-  <si>
-    <t>'8 ounces grape or cherry tomatoes, halved;1 pound dried pasta, such as rigatoni or farfalle'</t>
-  </si>
-  <si>
-    <t>'0.25 cup grated carrot (optional);2 tablespoons chopped pimento peppers (optional)'</t>
-  </si>
-  <si>
-    <t>'1 cup mayonnaise;2 tablespoons sugar ;0.5 teaspoon salt;0.5 teaspoon pepper;0.5 teaspoon celery seed;0.5 teaspoon garlic powder;0.5 teaspoon onion powder;2 tablespoons cider vinegar'</t>
-  </si>
-  <si>
-    <t>'20g galangal; 5 stalks bird’s eye chilly; 1 stalk fresh red chilly; 300ml plum sauce; 1 teaspoon salt; 2 teaspoons cooking oil; 5 tablespoons crushed fried peanuts; 1 tablespoon toasted sesame seeds'</t>
-  </si>
-  <si>
-    <t>'5g of Shallot crisps'</t>
-  </si>
-  <si>
-    <t>'FOR THE GARNISH:;1 green onion;2 .5cm knob of ginger;A small handful of coriander'</t>
-  </si>
-  <si>
-    <t>'20  dried chilies;200 g onions;4  garlic cloves;1 inch fresh ginger;2 tablespoons coriander powder;1 teaspoon fennel powder;1 teaspoon cumin powder;15 pieces black peppercorns;1 inch fresh ginger;1 pinch nutmeg;1 cup water'</t>
-  </si>
-  <si>
-    <t>'For the sauce;30 g dry roasted peanuts;1 fresh red chillies, chopped;2 garlic cloves, minced;1 teaspoon sugar;1 teaspoon salt;2 teaspoon vinegar;70 ml water'</t>
-  </si>
-  <si>
-    <t>'2 teaspoon chives, chopped;2 teaspoon of black pepper'</t>
-  </si>
-  <si>
-    <t>'6 teaspoon olive oil;2g of cider vinegar'</t>
-  </si>
-  <si>
-    <t>'10g of butter as cooking oil'</t>
-  </si>
-  <si>
-    <t>'5g of butter;1 wedge'</t>
-  </si>
-  <si>
-    <t>'5 teaspoon of sunflower oil;2 handfuls mixed leaves dressing of your choice, to serve;50g butter, softened;1 small garlic clove, minced (optional)'</t>
-  </si>
-  <si>
-    <t>'1 teaspoon olive oil;5g of plain flour, for dusting;500g pack all-butter puff pastry;2g of Worcestershire sauce;2 teaspoon freshly grated Parmesan;1 teaspoon plain flour;1 teaspoon of brandy;1 bottle of red wine (optional)'</t>
-  </si>
-  <si>
-    <t>'0.25 cup unsifted flour;1 teaspoon salt;0.5 teaspoon black pepper;0.5 cup butter;1 tablespoon sugar'</t>
-  </si>
-  <si>
-    <t>'3 tablespoons soy sauce;3 tablespoons Chinese rice wine or dry sherry;2 tablespoons granulated sugar;0.5 teaspoons kosher salt;0.5 teaspoon Chinese five-spice powder;1 tablespoon minced garlic;6 tablespoons cornstarch;5 teaspoon of Canola oil, for pan-frying'</t>
-  </si>
-  <si>
-    <t>'5 teaspoon of Vegetable oil;3 ounce of fresh white breadcrumbs;0.5 cup milk;0.5 teaspoons kosher salt, plus more to taste;5g of freshly ground black pepper;2 tablespoons olive oil'</t>
-  </si>
-  <si>
-    <t>'0.5 teaspoon of Kosher salt;1 tablespoon olive oil;1 medium yellow onion, coarsely chopped;4 medium garlic cloves, minced;5g of freshly ground black pepper'</t>
-  </si>
-  <si>
-    <t>'6 tablespoons extra-virgin olive oil;3 medium garlic cloves, sliced thin;1 cup canned whole tomatoes, cut into 1/2-inch strips, juice reserved;0.5 teaspoon of Kosher salt;5g of freshly ground black pepper;1 small yellow onion, small dice'</t>
-  </si>
-  <si>
-    <t>'0.5 teaspoon of Coarse-grained salt;5g of freshly ground black pepper;1 shallot;1 tablespoons red wine vinegar;0.5 teaspoon of coarse grain salt;2 tablespoons capers, rinsed;1 cup fresh flat-leaf parsley;0.5 cup toasted almonds;1 teaspoon of Extra-virgin olive oil'</t>
-  </si>
-  <si>
-    <t>'0.5 onion, finely chopped;1 cup Italian-style salad dressing'</t>
-  </si>
-  <si>
-    <t>'1.5 teaspoons red pepper flakes;2 ounces Pecorino Romano cheese, for garnish'</t>
-  </si>
-  <si>
-    <t>'1 cup mayonnaise;0.25 cup distilled white vinegar ;0.8 cup white sugar ;1 tablespoon prepared yellow mustard ;0.5 teaspoons salt ;0.5 teaspoon ground black pepper ;1 large onion, chopped '</t>
-  </si>
-  <si>
-    <t>Turmeric rice dumplings with dried shrimp sambal</t>
-  </si>
-  <si>
-    <t>Clams in Chinese rice wine ginger and chili</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2067,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2190,18 +2109,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -2491,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2500,7 +2407,10 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -2514,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C1" s="6">
         <v>6</v>
@@ -2526,34 +2436,34 @@
         <v>15</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>414</v>
+      <c r="K1" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>314</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C2" s="6">
         <v>18</v>
@@ -2573,34 +2483,34 @@
         <v>135</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>420</v>
+        <v>198</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>315</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2608,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="6">
         <v>4</v>
@@ -2620,42 +2530,42 @@
         <v>25</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>420</v>
+        <v>198</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>316</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" s="6">
         <v>6</v>
@@ -2667,42 +2577,42 @@
         <v>30</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -2714,42 +2624,42 @@
         <v>30</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>420</v>
+        <v>200</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
@@ -2761,42 +2671,42 @@
         <v>20</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>420</v>
+        <v>200</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
@@ -2808,42 +2718,42 @@
         <v>10</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>420</v>
+      <c r="K7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" s="6">
         <v>6</v>
@@ -2855,42 +2765,42 @@
         <v>25</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>662</v>
+        <v>202</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
@@ -2902,42 +2812,42 @@
         <v>30</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>420</v>
+        <v>203</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>322</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
@@ -2949,42 +2859,42 @@
         <v>20</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -2996,42 +2906,42 @@
         <v>140</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>420</v>
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C12" s="6">
         <v>6</v>
@@ -3043,42 +2953,42 @@
         <v>50</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>420</v>
+        <v>206</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>325</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C13" s="6">
         <v>4</v>
@@ -3090,42 +3000,42 @@
         <v>20</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>663</v>
+        <v>207</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C14" s="6">
         <v>6</v>
@@ -3137,42 +3047,42 @@
         <v>30</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C15" s="6">
         <v>10</v>
@@ -3184,42 +3094,42 @@
         <v>250</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>420</v>
+        <v>208</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>328</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
@@ -3231,42 +3141,42 @@
         <v>10</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>5</v>
+        <v>275</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>420</v>
+        <v>205</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C17" s="6">
         <v>6</v>
@@ -3278,42 +3188,42 @@
         <v>55</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>5</v>
+        <v>282</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>420</v>
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C18" s="6">
         <v>4</v>
@@ -3325,42 +3235,42 @@
         <v>20</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>331</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -3372,42 +3282,42 @@
         <v>120</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>5</v>
+        <v>282</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>420</v>
+        <v>211</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C20" s="6">
         <v>20</v>
@@ -3419,42 +3329,42 @@
         <v>300</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>682</v>
+        <v>274</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C21" s="6">
         <v>15</v>
@@ -3466,42 +3376,42 @@
         <v>135</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>420</v>
+        <v>32</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>334</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -3512,43 +3422,43 @@
       <c r="E22" s="10">
         <v>50</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>234</v>
+      <c r="F22" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>420</v>
+        <v>34</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>335</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -3559,43 +3469,43 @@
       <c r="E23" s="10">
         <v>30</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>236</v>
+      <c r="F23" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="N23" s="26" t="s">
-        <v>420</v>
+        <v>218</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>336</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C24" s="6">
         <v>6</v>
@@ -3607,42 +3517,42 @@
         <v>60</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>420</v>
+        <v>219</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C25" s="6">
         <v>4</v>
@@ -3654,42 +3564,42 @@
         <v>20</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="G25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="I25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="J25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>420</v>
+      <c r="K25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C26" s="6">
         <v>6</v>
@@ -3701,42 +3611,42 @@
         <v>20</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="G26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="I26" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>420</v>
+        <v>220</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>339</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C27" s="6">
         <v>4</v>
@@ -3748,42 +3658,42 @@
         <v>45</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="J27" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>420</v>
+        <v>221</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>340</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>683</v>
+        <v>279</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C28" s="6">
         <v>4</v>
@@ -3795,42 +3705,42 @@
         <v>5</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>420</v>
+        <v>43</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>341</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C29" s="6">
         <v>4</v>
@@ -3842,42 +3752,42 @@
         <v>15</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>420</v>
+        <v>43</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>342</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C30" s="6">
         <v>4</v>
@@ -3889,42 +3799,42 @@
         <v>35</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>420</v>
+        <v>222</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>343</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C31" s="6">
         <v>4</v>
@@ -3936,42 +3846,42 @@
         <v>6</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>664</v>
+        <v>224</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>344</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C32" s="6">
         <v>6</v>
@@ -3983,42 +3893,42 @@
         <v>55</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="M32" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="N32" s="25" t="s">
-        <v>420</v>
+      <c r="M32" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>345</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
@@ -4030,42 +3940,42 @@
         <v>8</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>420</v>
+        <v>43</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>346</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C34" s="6">
         <v>10</v>
@@ -4077,42 +3987,42 @@
         <v>250</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>420</v>
+        <v>227</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>347</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
@@ -4124,42 +4034,42 @@
         <v>10</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>420</v>
+        <v>62</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>348</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C36" s="6">
         <v>3</v>
@@ -4171,42 +4081,42 @@
         <v>12</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>420</v>
+        <v>62</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>349</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C37" s="6">
         <v>4</v>
@@ -4218,42 +4128,42 @@
         <v>10</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N37" s="25" t="s">
-        <v>420</v>
+        <v>65</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>350</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C38" s="6">
         <v>6</v>
@@ -4265,40 +4175,40 @@
         <v>25</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" s="12"/>
-      <c r="K38" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="N38" s="25" t="s">
-        <v>420</v>
+      <c r="K38" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>351</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C39" s="6">
         <v>4</v>
@@ -4310,42 +4220,42 @@
         <v>8</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N39" s="25" t="s">
-        <v>420</v>
+        <v>43</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>352</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -4357,42 +4267,42 @@
         <v>30</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="I40" s="12" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N40" s="25" t="s">
-        <v>420</v>
+        <v>229</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>353</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C41" s="6">
         <v>4</v>
@@ -4404,42 +4314,42 @@
         <v>15</v>
       </c>
       <c r="F41" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N41" s="25" t="s">
-        <v>420</v>
+      <c r="K41" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>354</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C42" s="6">
         <v>12</v>
@@ -4451,40 +4361,40 @@
         <v>20</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J42" s="12"/>
-      <c r="K42" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="M42" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="N42" s="25" t="s">
-        <v>420</v>
+      <c r="K42" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>355</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C43" s="6">
         <v>2</v>
@@ -4496,42 +4406,42 @@
         <v>20</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>356</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C44" s="6">
         <v>6</v>
@@ -4543,42 +4453,42 @@
         <v>30</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>357</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C45" s="6">
         <v>4</v>
@@ -4590,42 +4500,42 @@
         <v>20</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>420</v>
+        <v>218</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>358</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C46" s="6">
         <v>8</v>
@@ -4637,42 +4547,42 @@
         <v>15</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>420</v>
+      <c r="K46" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>359</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C47" s="6">
         <v>3</v>
@@ -4684,42 +4594,42 @@
         <v>40</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>360</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C48" s="6">
         <v>8</v>
@@ -4731,42 +4641,42 @@
         <v>20</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>420</v>
+        <v>233</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>361</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C49" s="6">
         <v>15</v>
@@ -4778,42 +4688,42 @@
         <v>20</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>420</v>
+        <v>234</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>362</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C50" s="6">
         <v>6</v>
@@ -4825,42 +4735,42 @@
         <v>10</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>420</v>
+        <v>96</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>363</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C51" s="6">
         <v>4</v>
@@ -4872,42 +4782,42 @@
         <v>10</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>420</v>
+        <v>98</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>364</v>
+        <v>607</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C52" s="6">
         <v>2</v>
@@ -4919,42 +4829,42 @@
         <v>30</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>365</v>
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C53" s="6">
         <v>3</v>
@@ -4966,42 +4876,42 @@
         <v>30</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>420</v>
+        <v>101</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>366</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C54" s="6">
         <v>3</v>
@@ -5013,42 +4923,42 @@
         <v>20</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>420</v>
+        <v>237</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>367</v>
+        <v>610</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C55" s="6">
         <v>2</v>
@@ -5060,42 +4970,42 @@
         <v>20</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>420</v>
+      <c r="K55" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>368</v>
+        <v>611</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C56" s="6">
         <v>4</v>
@@ -5107,42 +5017,42 @@
         <v>30</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C57" s="9">
         <v>6</v>
@@ -5154,42 +5064,42 @@
         <v>40</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>370</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C58" s="6">
         <v>3</v>
@@ -5201,42 +5111,42 @@
         <v>20</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>5</v>
+        <v>285</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>420</v>
+        <v>240</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C59" s="6">
         <v>4</v>
@@ -5248,42 +5158,42 @@
         <v>30</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>372</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C60" s="6">
         <v>20</v>
@@ -5295,42 +5205,42 @@
         <v>10</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>420</v>
+        <v>85</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>373</v>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C61" s="6">
         <v>5</v>
@@ -5342,42 +5252,42 @@
         <v>45</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>420</v>
+        <v>242</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>374</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C62" s="5">
         <v>5</v>
@@ -5389,42 +5299,42 @@
         <v>30</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K62" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="M62" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="N62" s="23" t="s">
-        <v>420</v>
+        <v>117</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>375</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C63" s="5">
         <v>12</v>
@@ -5436,42 +5346,42 @@
         <v>30</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="M63" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="N63" s="23" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>376</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C64" s="5">
         <v>6</v>
@@ -5483,42 +5393,42 @@
         <v>45</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H64" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="L64" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="M64" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="N64" s="23" t="s">
-        <v>665</v>
+      <c r="K64" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C65" s="5">
         <v>4</v>
@@ -5530,42 +5440,42 @@
         <v>30</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K65" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="L65" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="M65" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="N65" s="23" t="s">
-        <v>420</v>
+        <v>85</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>378</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C66" s="5">
         <v>4</v>
@@ -5577,42 +5487,42 @@
         <v>25</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="M66" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="N66" s="23" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>379</v>
+        <v>622</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C67" s="5">
         <v>4</v>
@@ -5624,42 +5534,42 @@
         <v>10</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="K67" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="N67" s="23" t="s">
-        <v>420</v>
+        <v>192</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>380</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C68" s="5">
         <v>4</v>
@@ -5671,42 +5581,42 @@
         <v>15</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J68" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K68" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="M68" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>420</v>
+      <c r="K68" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>381</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C69" s="5">
         <v>12</v>
@@ -5718,42 +5628,42 @@
         <v>60</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="K69" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="L69" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="M69" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="N69" s="23" t="s">
-        <v>420</v>
+        <v>247</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>382</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C70" s="5">
         <v>10</v>
@@ -5765,42 +5675,42 @@
         <v>60</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="K70" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="M70" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="N70" s="23" t="s">
-        <v>420</v>
+        <v>247</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>383</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C71" s="5">
         <v>10</v>
@@ -5812,42 +5722,42 @@
         <v>90</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="K71" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="L71" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="M71" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="N71" s="23" t="s">
-        <v>420</v>
+        <v>247</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>384</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
@@ -5859,42 +5769,42 @@
         <v>30</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="N72" s="24" t="s">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>385</v>
+        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C73" s="3">
         <v>10</v>
@@ -5906,42 +5816,42 @@
         <v>120</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="K73" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="L73" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="M73" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="N73" s="24" t="s">
-        <v>420</v>
+        <v>233</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>386</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C74" s="3">
         <v>6</v>
@@ -5953,42 +5863,42 @@
         <v>60</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="K74" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="M74" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="N74" s="24" t="s">
-        <v>420</v>
+        <v>249</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>387</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C75" s="3">
         <v>8</v>
@@ -6000,42 +5910,42 @@
         <v>30</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="K75" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="N75" s="24" t="s">
-        <v>666</v>
+        <v>250</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>388</v>
+        <v>631</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C76" s="3">
         <v>4</v>
@@ -6047,42 +5957,42 @@
         <v>15</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="K76" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="M76" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="N76" s="24" t="s">
-        <v>420</v>
+        <v>252</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>389</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C77" s="3">
         <v>6</v>
@@ -6094,42 +6004,39 @@
         <v>15</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="K77" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="M77" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="N77" s="24" t="s">
-        <v>420</v>
+        <v>253</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>390</v>
+        <v>633</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C78" s="3">
         <v>8</v>
@@ -6141,42 +6048,42 @@
         <v>180</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="K78" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="L78" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="M78" s="24" t="s">
-        <v>639</v>
-      </c>
-      <c r="N78" s="24" t="s">
-        <v>420</v>
+        <v>121</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>391</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C79" s="3">
         <v>6</v>
@@ -6188,42 +6095,39 @@
         <v>90</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="K79" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="M79" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="N79" s="24" t="s">
-        <v>420</v>
+        <v>121</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>392</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C80" s="3">
         <v>4</v>
@@ -6235,42 +6139,42 @@
         <v>20</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K80" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="N80" s="24" t="s">
-        <v>420</v>
+        <v>141</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>393</v>
+        <v>636</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C81" s="6">
         <v>4</v>
@@ -6282,42 +6186,42 @@
         <v>30</v>
       </c>
       <c r="F81" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J81" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G81" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L81" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>667</v>
+      <c r="K81" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>394</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C82" s="6">
         <v>2</v>
@@ -6329,42 +6233,42 @@
         <v>20</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>668</v>
+        <v>258</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>395</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C83" s="6">
         <v>2</v>
@@ -6376,42 +6280,42 @@
         <v>10</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="L83" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="N83" s="25" t="s">
-        <v>420</v>
+        <v>150</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>396</v>
+        <v>639</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C84" s="6">
         <v>2</v>
@@ -6423,42 +6327,42 @@
         <v>25</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>669</v>
+        <v>153</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>544</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>397</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C85" s="6">
         <v>1</v>
@@ -6470,42 +6374,42 @@
         <v>10</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>670</v>
+        <v>259</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>545</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>398</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C86" s="6">
         <v>2</v>
@@ -6517,42 +6421,42 @@
         <v>30</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>671</v>
+        <v>71</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>399</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C87" s="6">
         <v>8</v>
@@ -6564,42 +6468,42 @@
         <v>90</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>672</v>
+        <v>71</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>400</v>
+        <v>643</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C88" s="6">
         <v>6</v>
@@ -6611,42 +6515,42 @@
         <v>25</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G88" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I88" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H88" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="J88" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>673</v>
+        <v>160</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>401</v>
+        <v>644</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C89" s="6">
         <v>4</v>
@@ -6658,42 +6562,42 @@
         <v>15</v>
       </c>
       <c r="F89" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J89" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G89" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="L89" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="N89" s="25" t="s">
-        <v>420</v>
+      <c r="K89" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>402</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C90" s="6">
         <v>4</v>
@@ -6705,42 +6609,42 @@
         <v>120</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G90" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I90" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H90" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="J90" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="L90" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="N90" s="25" t="s">
-        <v>420</v>
+        <v>164</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>403</v>
+        <v>646</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C91" s="6">
         <v>6</v>
@@ -6752,42 +6656,42 @@
         <v>30</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="M91" s="25" t="s">
-        <v>652</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>674</v>
+        <v>164</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>404</v>
+        <v>647</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C92" s="6">
         <v>4</v>
@@ -6799,42 +6703,42 @@
         <v>20</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G92" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I92" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H92" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="J92" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="L92" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>675</v>
+        <v>167</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>405</v>
+        <v>648</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C93" s="6">
         <v>4</v>
@@ -6846,42 +6750,42 @@
         <v>30</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>676</v>
+        <v>267</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>406</v>
+        <v>649</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C94" s="6">
         <v>4</v>
@@ -6893,42 +6797,42 @@
         <v>20</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>677</v>
+        <v>268</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>407</v>
+        <v>650</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C95" s="6">
         <v>4</v>
@@ -6940,42 +6844,42 @@
         <v>15</v>
       </c>
       <c r="F95" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J95" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G95" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="N95" s="25" t="s">
-        <v>420</v>
+      <c r="K95" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>408</v>
+        <v>651</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C96" s="6">
         <v>4</v>
@@ -6987,42 +6891,42 @@
         <v>15</v>
       </c>
       <c r="F96" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J96" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G96" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="J96" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L96" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>678</v>
+      <c r="K96" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>409</v>
+        <v>652</v>
       </c>
     </row>
     <row r="97" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C97" s="6">
         <v>8</v>
@@ -7034,42 +6938,42 @@
         <v>15</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="L97" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>679</v>
+        <v>177</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>410</v>
+        <v>653</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C98" s="6">
         <v>4</v>
@@ -7081,42 +6985,42 @@
         <v>15</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>680</v>
+        <v>273</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>555</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>411</v>
+        <v>654</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C99" s="6">
         <v>8</v>
@@ -7128,42 +7032,42 @@
         <v>10</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G99" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J99" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H99" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="J99" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>681</v>
+      <c r="K99" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>412</v>
+        <v>655</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C100" s="6">
         <v>8</v>
@@ -7175,34 +7079,34 @@
         <v>60</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="L100" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="N100" s="25" t="s">
-        <v>420</v>
+        <v>184</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>413</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -7212,6 +7116,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008391A78A96E52D49B7547661E7A4BF06" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f85b5808450112fb8a7ca44957bb917">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40cda520-8ac8-43fb-9853-1ab640917454" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4771e6a9242bec3fb156c39d4a4cbe5" ns2:_="">
     <xsd:import namespace="40cda520-8ac8-43fb-9853-1ab640917454"/>
@@ -7359,22 +7278,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="40cda520-8ac8-43fb-9853-1ab640917454"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF8687-F08D-4160-94B0-189397DE676C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7390,28 +7318,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="40cda520-8ac8-43fb-9853-1ab640917454"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/recipeData/Recipes.xlsx
+++ b/recipeData/Recipes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="502">
   <si>
     <t>sambal dried shrimp</t>
   </si>
@@ -356,9 +356,6 @@
     <t>scrambled eggs</t>
   </si>
   <si>
-    <t>fry</t>
-  </si>
-  <si>
     <t>American blueberry pancakes</t>
   </si>
   <si>
@@ -596,9 +593,6 @@
     <t>Cabbage</t>
   </si>
   <si>
-    <t>'dried shrimps;Nyonya Sambal chilli;fine sugar;lime leaves'</t>
-  </si>
-  <si>
     <t>'vegetarian chicken;cooking oil;glutinous rice;blue pea flower;hemp string;pandan leaves;salt;dried bamboo leaves;biryani powder;water;mushroom stock;brown sugar;winter melon;dried chilly;lemongrass;blue ginger;turmeric'</t>
   </si>
   <si>
@@ -656,15 +650,6 @@
     <t>'sweet potato flesh;coarse sugar;water;tapioca flour;thick coconut milk;salt;coconut flesh'</t>
   </si>
   <si>
-    <t>'glutinous rice;freshly ground turmeric;tamarind peel;pepper corn;salt;dried bamboo leave;hemp string;cooking oil;dried chilly;shallot;sugar;salt;dried prawn'</t>
-  </si>
-  <si>
-    <t>'pork belly;tamarind paste;water;salt;sugar'</t>
-  </si>
-  <si>
-    <t>'skinless chicken breast;chicken drumsticks;rice;corn oil;ginger;scallion;mushroom;oyster sauce;soy sauce;corn starch;sesame oil;white pepper;sugar;shaoxing wine;dark soy sauce;salt'</t>
-  </si>
-  <si>
     <t>'corn cooking oil;water;pork ribs;salt;yellow noodle;dried vermicelli;dried chiilies;shallot;garlic;prawn;rock sugar;salt;sugar;eggs kang kong;bean sprout;shallot crips'</t>
   </si>
   <si>
@@ -755,9 +740,6 @@
     <t>'vegetable oil; cumin seeds; large onion; ginger-garlic paste; medium sized ripe tomatoes; coriander powder; cumin powder; turmeric powder; chili powder; dry kasoori methi; heavy cream; Salt; white button mushrooms;  large green or red bell pepper; turmeric; chili powder;greek yogurt'</t>
   </si>
   <si>
-    <t>'cauliflower;potatoes;canola oil;black mustard seeds;cumin seeds;coriander seeds;medium onion, diced;Jalapeno;hot green pepper;tomato;garlic cloves;ginger;red pepper chili powder;turmeric powder;salt;water'</t>
-  </si>
-  <si>
     <t>'seafood curry paste;prawns;squids;scallops;seabass fillet;tomato; coconut milk;tamarind pulp;shallots;water;oil;Salt;curry leaves'</t>
   </si>
   <si>
@@ -788,15 +770,9 @@
     <t>'chicken breast; butter; garlic; jalapeno; Salt; pizza crust; Olive oil; onion; mozzarella cheese; coriander leaves; cilantro; cumin; cayenne pepper; garam masala; ginger; salt; black pepper; lemon juice; yogurt; cinnamon; tomato sauce; plain yogurt; cumin'</t>
   </si>
   <si>
-    <t>'paprika; garam masala; '</t>
-  </si>
-  <si>
     <t>'boneless skinless chicken breast; vegetable oil; minced garlic; fresh ginger; onion; cumin seeds; green cardamom; ripe tomato; turmeric; red pepper;cayenne; salt; black pepper'</t>
   </si>
   <si>
-    <t>'wheat flour; water; salt'</t>
-  </si>
-  <si>
     <t>'rie firm green mango; cinnamon; cloves; cumin seeds; coriander seeds; cardamom; ginger; dry red chilly; garlic; demerara suga; vinegar; water; salt'</t>
   </si>
   <si>
@@ -806,9 +782,6 @@
     <t>'ripe bananas; lemon juice; full cream milk; vanilla paste; baking powder; butter; sugar; eggs; flour; walnuts; chopped candied ginger; Vanilla ice-cream'</t>
   </si>
   <si>
-    <t>'butter; salt; sugee;polenta; fresh milk; caster sugar; Grade A eggs; orange; self-raising flour; brandy; pineapple; brown sugar; cream'</t>
-  </si>
-  <si>
     <t>'Chicken; water; Salam Leaf; Oil; cloves; Garlic; Coriander; Ginger; Galangal'</t>
   </si>
   <si>
@@ -1491,6 +1464,72 @@
   </si>
   <si>
     <t>'In a large bowl, mix mayonnaise, sugar, salt, pepper, celery seed, garlic powder, onion powder and cider vinegar. ;Toss coleslaw mix with dressing to coat. ;Chill at least 1 hour before serving.'</t>
+  </si>
+  <si>
+    <t>'Halal; NoNuts; Spicy'</t>
+  </si>
+  <si>
+    <t>'Halal; Vegetarian; NoNuts'</t>
+  </si>
+  <si>
+    <t>'Vegetarian; Healthy; NoNuts'</t>
+  </si>
+  <si>
+    <t>'Halal; NoNuts'</t>
+  </si>
+  <si>
+    <t>'Halal; Spicy'</t>
+  </si>
+  <si>
+    <t>'Healthy; Spicy'</t>
+  </si>
+  <si>
+    <t>'NoNuts'</t>
+  </si>
+  <si>
+    <t>'Vegetarian; NoNuts; Spicy'</t>
+  </si>
+  <si>
+    <t>'Healthy; NoNuts'</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>'Vegetarian; NoNuts'</t>
+  </si>
+  <si>
+    <t>'NoNuts; Spicy'</t>
+  </si>
+  <si>
+    <t>'Vegetarian'</t>
+  </si>
+  <si>
+    <t>'Healthy'</t>
+  </si>
+  <si>
+    <t>'dried shrimps;Nyonya Sambal chilly;fine sugar;lime leaves'</t>
+  </si>
+  <si>
+    <t>'glutinous rice;turmeric;tamarind peel;pepper corn;salt;dried bamboo leave;hemp string;cooking oil;dried chilly;shallot;sugar;salt;dried prawn'</t>
+  </si>
+  <si>
+    <t>'pork;tamarind paste;water;salt;sugar'</t>
+  </si>
+  <si>
+    <t>'chicken;rice;corn oil;ginger;scallion;mushroom;oyster sauce;soy sauce;corn starch;sesame oil;white pepper;sugar;shaoxing wine;dark soy sauce;salt'</t>
+  </si>
+  <si>
+    <t>'cauliflower;potatoes;canola oil;black mustard seeds;cumin seeds;coriander seeds;onion;Jalapeno;hot green pepper;tomato;garlic cloves;ginger;red pepper chili powder;turmeric powder;salt;water'</t>
+  </si>
+  <si>
+    <t>'ghee; flour; castor sugar; salt; eggs; coconut milk; pandan juice; pandan colouring'</t>
+  </si>
+  <si>
+    <t>'red onions;red bell pepper;red chilli;honey red tomatoes;garlic;cinnamon;fish sauce;sugar;oil'</t>
+  </si>
+  <si>
+    <t>'butter; salt; sugee;polenta; fresh milk; caster sugar; eggs; orange; self-raising flour; brandy; pineapple; brown sugar; cream'</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1602,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1606,11 +1645,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1630,9 +1664,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1920,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="C72" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1939,16 +1971,16 @@
     <col min="9" max="9" width="14.5703125" style="15" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="15" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="255.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="100.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>141</v>
+      <c r="B1" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C1" s="12">
         <v>6</v>
@@ -1966,30 +1998,33 @@
         <v>1</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>190</v>
+      <c r="K1" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>143</v>
+      <c r="B2" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="12">
         <v>18</v>
@@ -2010,27 +2045,30 @@
         <v>35</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>191</v>
+      <c r="K2" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>141</v>
+      <c r="B3" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C3" s="12">
         <v>4</v>
@@ -2042,36 +2080,39 @@
         <v>25</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>192</v>
+      <c r="K3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>141</v>
+      <c r="B4" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C4" s="12">
         <v>6</v>
@@ -2092,27 +2133,30 @@
         <v>35</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>193</v>
+      <c r="K4" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>142</v>
+      <c r="B5" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="12">
         <v>10</v>
@@ -2133,27 +2177,30 @@
         <v>35</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>194</v>
+      <c r="K5" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>142</v>
+      <c r="B6" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="12">
         <v>10</v>
@@ -2174,27 +2221,30 @@
         <v>38</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>195</v>
+      <c r="K6" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>141</v>
+      <c r="B7" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C7" s="12">
         <v>4</v>
@@ -2215,27 +2265,30 @@
         <v>38</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>196</v>
+      <c r="K7" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>141</v>
+      <c r="B8" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="12">
         <v>6</v>
@@ -2247,7 +2300,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>11</v>
@@ -2256,27 +2309,30 @@
         <v>35</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>197</v>
+      <c r="K8" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>141</v>
+      <c r="B9" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="12">
         <v>4</v>
@@ -2297,27 +2353,30 @@
         <v>38</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>141</v>
+      <c r="B10" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C10" s="12">
         <v>10</v>
@@ -2329,7 +2388,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>85</v>
@@ -2338,27 +2397,30 @@
         <v>35</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>199</v>
+      <c r="K10" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>141</v>
+      <c r="B11" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C11" s="12">
         <v>4</v>
@@ -2379,27 +2441,30 @@
         <v>35</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>200</v>
+      <c r="K11" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>141</v>
+      <c r="B12" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C12" s="12">
         <v>6</v>
@@ -2420,27 +2485,30 @@
         <v>35</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>141</v>
+      <c r="B13" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -2461,27 +2529,30 @@
         <v>35</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>202</v>
+      <c r="K13" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>141</v>
+      <c r="B14" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C14" s="12">
         <v>6</v>
@@ -2502,27 +2573,30 @@
         <v>35</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>203</v>
+      <c r="K14" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>141</v>
+      <c r="B15" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C15" s="12">
         <v>10</v>
@@ -2543,27 +2617,30 @@
         <v>38</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>141</v>
+      <c r="B16" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C16" s="12">
         <v>4</v>
@@ -2575,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>85</v>
@@ -2584,27 +2661,30 @@
         <v>35</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>205</v>
+      <c r="K16" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>141</v>
+      <c r="B17" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C17" s="12">
         <v>6</v>
@@ -2616,7 +2696,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>85</v>
@@ -2625,27 +2705,30 @@
         <v>38</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>206</v>
+      <c r="K17" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>141</v>
+      <c r="B18" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C18" s="12">
         <v>4</v>
@@ -2663,30 +2746,33 @@
         <v>85</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>207</v>
+      <c r="K18" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>142</v>
+      <c r="B19" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C19" s="12">
         <v>12</v>
@@ -2698,36 +2784,39 @@
         <v>120</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>208</v>
+        <v>122</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>141</v>
+      <c r="B20" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C20" s="12">
         <v>20</v>
@@ -2745,30 +2834,33 @@
         <v>11</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>209</v>
+      <c r="K20" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="C21" s="12">
         <v>15</v>
@@ -2789,27 +2881,30 @@
         <v>35</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="28" t="s">
-        <v>210</v>
+      <c r="K21" s="9" t="s">
+        <v>495</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>142</v>
+      <c r="B22" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="C22" s="13">
         <v>10</v>
@@ -2826,31 +2921,34 @@
       <c r="G22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>129</v>
+      <c r="H22" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="28" t="s">
-        <v>211</v>
+      <c r="K22" s="9" t="s">
+        <v>496</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>141</v>
+      <c r="B23" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C23" s="13">
         <v>2</v>
@@ -2862,36 +2960,39 @@
         <v>30</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>164</v>
+      <c r="H23" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>212</v>
+      <c r="K23" s="6" t="s">
+        <v>497</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>141</v>
+      <c r="B24" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C24" s="12">
         <v>6</v>
@@ -2903,36 +3004,39 @@
         <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>164</v>
+      <c r="H24" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>213</v>
+      <c r="K24" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>141</v>
+      <c r="B25" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C25" s="12">
         <v>4</v>
@@ -2944,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>34</v>
@@ -2953,27 +3057,30 @@
         <v>35</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>214</v>
+      <c r="K25" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>141</v>
+      <c r="B26" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C26" s="12">
         <v>6</v>
@@ -2985,7 +3092,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>34</v>
@@ -2994,27 +3101,30 @@
         <v>35</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>215</v>
+      <c r="K26" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>141</v>
+      <c r="B27" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="12">
         <v>4</v>
@@ -3026,7 +3136,7 @@
         <v>45</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>32</v>
@@ -3035,27 +3145,30 @@
         <v>38</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>216</v>
+        <v>174</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C28" s="12">
         <v>4</v>
@@ -3067,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>85</v>
@@ -3076,27 +3189,30 @@
         <v>38</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>217</v>
+      <c r="K28" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>141</v>
+      <c r="B29" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="12">
         <v>4</v>
@@ -3108,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>85</v>
@@ -3117,27 +3233,30 @@
         <v>35</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>218</v>
+      <c r="K29" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>141</v>
+      <c r="B30" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="12">
         <v>4</v>
@@ -3149,7 +3268,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>85</v>
@@ -3158,27 +3277,30 @@
         <v>38</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>219</v>
+        <v>173</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>142</v>
+      <c r="B31" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C31" s="12">
         <v>4</v>
@@ -3190,7 +3312,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>85</v>
@@ -3199,27 +3321,30 @@
         <v>35</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>220</v>
+        <v>173</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>141</v>
+      <c r="B32" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C32" s="12">
         <v>6</v>
@@ -3231,7 +3356,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>64</v>
@@ -3240,27 +3365,30 @@
         <v>35</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>221</v>
+      <c r="K32" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>141</v>
+      <c r="B33" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C33" s="12">
         <v>2</v>
@@ -3272,36 +3400,39 @@
         <v>8</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>222</v>
+      <c r="K33" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>141</v>
+      <c r="B34" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C34" s="12">
         <v>10</v>
@@ -3313,36 +3444,39 @@
         <v>250</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>223</v>
+      <c r="K34" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>141</v>
+      <c r="B35" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C35" s="12">
         <v>2</v>
@@ -3354,7 +3488,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>85</v>
@@ -3363,27 +3497,30 @@
         <v>35</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>224</v>
+        <v>173</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>141</v>
+      <c r="B36" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C36" s="12">
         <v>3</v>
@@ -3395,7 +3532,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>85</v>
@@ -3404,27 +3541,30 @@
         <v>35</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>225</v>
+        <v>173</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>141</v>
+      <c r="B37" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C37" s="12">
         <v>4</v>
@@ -3436,7 +3576,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>85</v>
@@ -3445,27 +3585,30 @@
         <v>35</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>226</v>
+        <v>177</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>141</v>
+      <c r="B38" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C38" s="12">
         <v>6</v>
@@ -3477,36 +3620,39 @@
         <v>25</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>227</v>
+        <v>176</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>141</v>
+      <c r="B39" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C39" s="12">
         <v>4</v>
@@ -3518,7 +3664,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>85</v>
@@ -3527,27 +3673,30 @@
         <v>35</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>228</v>
+      <c r="K39" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>141</v>
+      <c r="B40" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -3559,7 +3708,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>32</v>
@@ -3568,27 +3717,30 @@
         <v>38</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>229</v>
+        <v>177</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>142</v>
+      <c r="B41" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C41" s="12">
         <v>4</v>
@@ -3600,7 +3752,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>85</v>
@@ -3609,27 +3761,30 @@
         <v>35</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>230</v>
+      <c r="K41" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>142</v>
+      <c r="B42" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C42" s="12">
         <v>12</v>
@@ -3641,36 +3796,39 @@
         <v>20</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>231</v>
+        <v>176</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>141</v>
+      <c r="B43" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C43" s="12">
         <v>2</v>
@@ -3682,7 +3840,7 @@
         <v>20</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>85</v>
@@ -3691,27 +3849,30 @@
         <v>54</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>232</v>
+      <c r="K43" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>141</v>
+      <c r="B44" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C44" s="12">
         <v>6</v>
@@ -3723,7 +3884,7 @@
         <v>30</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>85</v>
@@ -3732,27 +3893,30 @@
         <v>56</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>233</v>
+      <c r="K44" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>141</v>
+      <c r="B45" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C45" s="12">
         <v>4</v>
@@ -3764,7 +3928,7 @@
         <v>20</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>85</v>
@@ -3773,27 +3937,30 @@
         <v>58</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>234</v>
+      <c r="K45" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>141</v>
+      <c r="B46" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C46" s="12">
         <v>8</v>
@@ -3805,7 +3972,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>85</v>
@@ -3814,27 +3981,30 @@
         <v>60</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>235</v>
+      <c r="K46" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>142</v>
+      <c r="B47" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C47" s="12">
         <v>3</v>
@@ -3846,7 +4016,7 @@
         <v>40</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>85</v>
@@ -3855,27 +4025,30 @@
         <v>58</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>236</v>
+      <c r="K47" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>142</v>
+      <c r="B48" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C48" s="12">
         <v>8</v>
@@ -3887,7 +4060,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>64</v>
@@ -3896,27 +4069,30 @@
         <v>106</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>237</v>
+      <c r="K48" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>141</v>
+      <c r="B49" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C49" s="12">
         <v>15</v>
@@ -3928,7 +4104,7 @@
         <v>20</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>11</v>
@@ -3937,27 +4113,30 @@
         <v>56</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>238</v>
+        <v>178</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>141</v>
+      <c r="B50" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C50" s="12">
         <v>6</v>
@@ -3969,7 +4148,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>11</v>
@@ -3978,27 +4157,30 @@
         <v>54</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>239</v>
+      <c r="K50" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>141</v>
+      <c r="B51" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C51" s="12">
         <v>4</v>
@@ -4010,7 +4192,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>85</v>
@@ -4019,27 +4201,30 @@
         <v>58</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>240</v>
+        <v>179</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>143</v>
+      <c r="B52" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="C52" s="12">
         <v>2</v>
@@ -4051,7 +4236,7 @@
         <v>30</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>85</v>
@@ -4060,27 +4245,30 @@
         <v>58</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>241</v>
+      <c r="K52" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>142</v>
+      <c r="B53" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C53" s="12">
         <v>3</v>
@@ -4092,36 +4280,39 @@
         <v>30</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>242</v>
+      <c r="K53" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>141</v>
+      <c r="B54" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C54" s="12">
         <v>3</v>
@@ -4133,7 +4324,7 @@
         <v>20</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>73</v>
@@ -4142,27 +4333,30 @@
         <v>106</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>243</v>
+      <c r="K54" s="6" t="s">
+        <v>498</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>141</v>
+      <c r="B55" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C55" s="12">
         <v>2</v>
@@ -4174,7 +4368,7 @@
         <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>85</v>
@@ -4183,27 +4377,30 @@
         <v>75</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>244</v>
+      <c r="K55" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>142</v>
+      <c r="B56" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C56" s="12">
         <v>4</v>
@@ -4215,7 +4412,7 @@
         <v>30</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>85</v>
@@ -4224,27 +4421,30 @@
         <v>106</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>245</v>
+      <c r="K56" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="21" t="s">
-        <v>141</v>
+      <c r="B57" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C57" s="14">
         <v>6</v>
@@ -4256,7 +4456,7 @@
         <v>40</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>85</v>
@@ -4265,27 +4465,30 @@
         <v>54</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K57" s="18" t="s">
-        <v>246</v>
+      <c r="K57" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>142</v>
+      <c r="B58" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C58" s="12">
         <v>3</v>
@@ -4297,36 +4500,39 @@
         <v>20</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H58" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>247</v>
+      <c r="K58" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>142</v>
+      <c r="B59" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C59" s="12">
         <v>4</v>
@@ -4338,7 +4544,7 @@
         <v>30</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>85</v>
@@ -4347,27 +4553,30 @@
         <v>106</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>248</v>
+      <c r="K59" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>141</v>
+      <c r="B60" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C60" s="12">
         <v>20</v>
@@ -4379,7 +4588,7 @@
         <v>10</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>85</v>
@@ -4388,27 +4597,30 @@
         <v>106</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J60" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>249</v>
+      <c r="K60" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>141</v>
+      <c r="B61" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C61" s="12">
         <v>5</v>
@@ -4420,7 +4632,7 @@
         <v>45</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>64</v>
@@ -4429,27 +4641,30 @@
         <v>106</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>250</v>
+      <c r="K61" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>141</v>
+      <c r="B62" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C62" s="11">
         <v>5</v>
@@ -4461,36 +4676,39 @@
         <v>30</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I62" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K62" s="19" t="s">
-        <v>251</v>
+      <c r="K62" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>142</v>
+      <c r="B63" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C63" s="11">
         <v>12</v>
@@ -4508,30 +4726,33 @@
         <v>85</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J63" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K63" s="19" t="s">
-        <v>252</v>
+      <c r="K63" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>141</v>
+      <c r="B64" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C64" s="11">
         <v>6</v>
@@ -4543,7 +4764,7 @@
         <v>45</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>85</v>
@@ -4552,27 +4773,30 @@
         <v>106</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J64" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="K64" s="19" t="s">
-        <v>253</v>
+      <c r="K64" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="26" t="s">
-        <v>141</v>
+      <c r="B65" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C65" s="11">
         <v>4</v>
@@ -4584,36 +4808,39 @@
         <v>30</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H65" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="J65" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K65" s="19" t="s">
-        <v>254</v>
+      <c r="K65" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>141</v>
+      <c r="B66" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C66" s="11">
         <v>4</v>
@@ -4625,7 +4852,7 @@
         <v>25</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>85</v>
@@ -4634,27 +4861,30 @@
         <v>106</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J66" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K66" s="19" t="s">
-        <v>255</v>
+      <c r="K66" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C67" s="11">
         <v>4</v>
@@ -4666,36 +4896,39 @@
         <v>10</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>56</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>256</v>
+        <v>139</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>141</v>
+      <c r="B68" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C68" s="11">
         <v>4</v>
@@ -4707,7 +4940,7 @@
         <v>15</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>85</v>
@@ -4716,27 +4949,30 @@
         <v>35</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J68" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K68" s="19" t="s">
-        <v>257</v>
+      <c r="K68" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="26" t="s">
-        <v>142</v>
+      <c r="B69" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C69" s="11">
         <v>12</v>
@@ -4753,31 +4989,34 @@
       <c r="G69" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="27" t="s">
-        <v>169</v>
+      <c r="H69" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J69" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K69" s="19" t="s">
-        <v>258</v>
+      <c r="K69" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>141</v>
+      <c r="B70" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C70" s="11">
         <v>10</v>
@@ -4794,31 +5033,34 @@
       <c r="G70" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="27" t="s">
+      <c r="H70" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="J70" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K70" s="19" t="s">
-        <v>259</v>
+      <c r="K70" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>142</v>
+      <c r="B71" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C71" s="11">
         <v>10</v>
@@ -4830,36 +5072,39 @@
         <v>90</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K71" s="19" t="s">
-        <v>260</v>
+      <c r="K71" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>142</v>
+      <c r="B72" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C72" s="12">
         <v>2</v>
@@ -4871,7 +5116,7 @@
         <v>30</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>85</v>
@@ -4880,27 +5125,30 @@
         <v>106</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J72" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K72" s="20" t="s">
-        <v>261</v>
+      <c r="K72" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>143</v>
+      <c r="B73" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C73" s="12">
         <v>10</v>
@@ -4912,7 +5160,7 @@
         <v>120</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>11</v>
@@ -4921,27 +5169,30 @@
         <v>58</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>262</v>
+        <v>176</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="25" t="s">
-        <v>141</v>
+      <c r="B74" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C74" s="12">
         <v>6</v>
@@ -4953,7 +5204,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>11</v>
@@ -4962,27 +5213,30 @@
         <v>38</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="K74" s="20" t="s">
-        <v>263</v>
+        <v>180</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="25" t="s">
-        <v>142</v>
+      <c r="B75" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C75" s="12">
         <v>8</v>
@@ -4994,36 +5248,39 @@
         <v>30</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="K75" s="20" t="s">
-        <v>264</v>
+        <v>181</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="25" t="s">
-        <v>141</v>
+      <c r="B76" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C76" s="12">
         <v>4</v>
@@ -5035,36 +5292,39 @@
         <v>15</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="K76" s="20" t="s">
-        <v>265</v>
+        <v>182</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="25" t="s">
-        <v>142</v>
+      <c r="B77" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C77" s="12">
         <v>6</v>
@@ -5076,7 +5336,7 @@
         <v>15</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>11</v>
@@ -5085,27 +5345,30 @@
         <v>106</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="K77" s="20" t="s">
-        <v>266</v>
+        <v>183</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="25" t="s">
-        <v>143</v>
+      <c r="B78" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C78" s="12">
         <v>8</v>
@@ -5117,7 +5380,7 @@
         <v>180</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>85</v>
@@ -5126,27 +5389,30 @@
         <v>38</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J78" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K78" s="20" t="s">
-        <v>267</v>
+      <c r="K78" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="25" t="s">
-        <v>142</v>
+      <c r="B79" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C79" s="12">
         <v>6</v>
@@ -5158,7 +5424,7 @@
         <v>90</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>85</v>
@@ -5167,27 +5433,30 @@
         <v>38</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J79" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K79" s="20" t="s">
-        <v>268</v>
+      <c r="K79" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="25" t="s">
-        <v>141</v>
+      <c r="B80" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C80" s="12">
         <v>4</v>
@@ -5199,7 +5468,7 @@
         <v>20</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>73</v>
@@ -5208,27 +5477,30 @@
         <v>106</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J80" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K80" s="20" t="s">
-        <v>269</v>
+      <c r="K80" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="21" t="s">
-        <v>142</v>
+      <c r="B81" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C81" s="12">
         <v>4</v>
@@ -5249,27 +5521,30 @@
         <v>106</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J81" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>270</v>
+      <c r="K81" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>141</v>
+      <c r="B82" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C82" s="12">
         <v>2</v>
@@ -5287,30 +5562,33 @@
         <v>64</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>271</v>
+        <v>184</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="21" t="s">
-        <v>141</v>
+      <c r="B83" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C83" s="12">
         <v>2</v>
@@ -5331,27 +5609,30 @@
         <v>106</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>265</v>
+        <v>176</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>141</v>
+        <v>110</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C84" s="12">
         <v>2</v>
@@ -5372,27 +5653,30 @@
         <v>106</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>272</v>
+      <c r="K84" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C85" s="12">
         <v>1</v>
@@ -5413,27 +5697,30 @@
         <v>106</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>273</v>
+        <v>176</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C86" s="12">
         <v>2</v>
@@ -5451,30 +5738,33 @@
         <v>85</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J86" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>274</v>
+      <c r="K86" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="C87" s="12">
         <v>8</v>
@@ -5492,30 +5782,33 @@
         <v>85</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>275</v>
+      <c r="K87" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>141</v>
+        <v>114</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C88" s="12">
         <v>6</v>
@@ -5533,30 +5826,33 @@
         <v>85</v>
       </c>
       <c r="H88" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I88" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="I88" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>276</v>
+      <c r="K88" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>141</v>
+        <v>117</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C89" s="12">
         <v>4</v>
@@ -5574,30 +5870,33 @@
         <v>85</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>277</v>
+      <c r="K89" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>142</v>
+        <v>119</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C90" s="12">
         <v>4</v>
@@ -5615,30 +5914,33 @@
         <v>85</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>278</v>
+      <c r="K90" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>141</v>
+        <v>120</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C91" s="12">
         <v>6</v>
@@ -5656,30 +5958,33 @@
         <v>85</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J91" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>279</v>
+      <c r="K91" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>141</v>
+        <v>121</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C92" s="12">
         <v>4</v>
@@ -5697,30 +6002,33 @@
         <v>85</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J92" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="L92" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="M92" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>142</v>
+      <c r="B93" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C93" s="12">
         <v>4</v>
@@ -5738,30 +6046,33 @@
         <v>85</v>
       </c>
       <c r="H93" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I93" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I93" s="15" t="s">
-        <v>172</v>
-      </c>
       <c r="J93" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>281</v>
+        <v>185</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>141</v>
+        <v>124</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C94" s="12">
         <v>4</v>
@@ -5779,30 +6090,33 @@
         <v>85</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J94" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>282</v>
+      <c r="K94" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>141</v>
+        <v>126</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C95" s="12">
         <v>4</v>
@@ -5822,28 +6136,31 @@
       <c r="H95" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I95" s="15" t="s">
-        <v>110</v>
+      <c r="I95" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="J95" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>283</v>
+      <c r="K95" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>141</v>
+        <v>127</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C96" s="12">
         <v>4</v>
@@ -5861,30 +6178,33 @@
         <v>85</v>
       </c>
       <c r="H96" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I96" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="I96" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>284</v>
+      <c r="K96" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C97" s="12">
         <v>8</v>
@@ -5905,27 +6225,30 @@
         <v>38</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>285</v>
+        <v>186</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>141</v>
+        <v>131</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C98" s="12">
         <v>4</v>
@@ -5946,27 +6269,30 @@
         <v>38</v>
       </c>
       <c r="I98" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>286</v>
+        <v>186</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M98" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="N98" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C99" s="12">
         <v>8</v>
@@ -5987,27 +6313,30 @@
         <v>38</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>287</v>
+        <v>187</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C100" s="12">
         <v>8</v>
@@ -6025,22 +6354,25 @@
         <v>11</v>
       </c>
       <c r="H100" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I100" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="J100" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>288</v>
+        <v>188</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6198,18 +6530,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6231,25 +6563,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40cda520-8ac8-43fb-9853-1ab640917454"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="40cda520-8ac8-43fb-9853-1ab640917454"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>